--- a/raw data/GLY PD data 6.12.14_Analysis_Data.xlsx
+++ b/raw data/GLY PD data 6.12.14_Analysis_Data.xlsx
@@ -9,19 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="concentrations" sheetId="1" r:id="rId1"/>
     <sheet name=" AUC" sheetId="2" r:id="rId2"/>
     <sheet name="tspan" sheetId="3" r:id="rId3"/>
+    <sheet name="dose_1.25" sheetId="4" r:id="rId4"/>
+    <sheet name="dose_2.5" sheetId="5" r:id="rId5"/>
+    <sheet name="dose_5.0" sheetId="6" r:id="rId6"/>
+    <sheet name="dose_7.5" sheetId="7" r:id="rId7"/>
+    <sheet name="dose_10" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="118">
   <si>
     <t xml:space="preserve">Subject </t>
   </si>
@@ -373,12 +378,15 @@
   <si>
     <t>cumAUCgluc 5</t>
   </si>
+  <si>
+    <t>Mean</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,13 +428,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -456,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -493,6 +523,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:AD1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16519,7 +16553,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D16"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16549,12 +16583,12 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+      <c r="B4" s="19">
         <v>1.17</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+      <c r="B5" s="19">
         <v>1.3</v>
       </c>
     </row>
@@ -16591,7 +16625,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+      <c r="B10" s="19">
         <v>3.5</v>
       </c>
     </row>
@@ -16612,22 +16646,22 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="18">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="18">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="18">
         <v>12</v>
       </c>
     </row>
@@ -16635,4 +16669,6395 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO12"/>
+  <sheetViews>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2:AO12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:41" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO1" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C2">
+        <v>68</v>
+      </c>
+      <c r="D2">
+        <v>160</v>
+      </c>
+      <c r="E2">
+        <v>26.5625</v>
+      </c>
+      <c r="F2" s="7">
+        <v>13.7</v>
+      </c>
+      <c r="G2" s="7">
+        <v>12.52</v>
+      </c>
+      <c r="H2" s="7">
+        <v>14.15</v>
+      </c>
+      <c r="I2" s="7">
+        <v>28.53</v>
+      </c>
+      <c r="J2" s="7">
+        <v>26.53</v>
+      </c>
+      <c r="K2" s="7">
+        <v>28.07</v>
+      </c>
+      <c r="L2" s="7">
+        <v>27.45</v>
+      </c>
+      <c r="M2" s="7">
+        <v>22.09</v>
+      </c>
+      <c r="N2" s="7">
+        <v>15.54</v>
+      </c>
+      <c r="O2" s="5">
+        <v>27</v>
+      </c>
+      <c r="P2" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>20</v>
+      </c>
+      <c r="R2" s="5">
+        <v>103</v>
+      </c>
+      <c r="S2" s="5">
+        <v>160</v>
+      </c>
+      <c r="T2" s="5">
+        <v>145</v>
+      </c>
+      <c r="U2" s="5">
+        <v>159</v>
+      </c>
+      <c r="V2" s="5">
+        <v>86</v>
+      </c>
+      <c r="W2" s="5">
+        <v>90</v>
+      </c>
+      <c r="X2" s="5">
+        <v>75</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>75</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>120</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>148</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>127</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>143</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>72</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>72</v>
+      </c>
+      <c r="AG2" s="11">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AH2" s="11">
+        <v>4.03</v>
+      </c>
+      <c r="AI2" s="11">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AJ2" s="11">
+        <v>13.44</v>
+      </c>
+      <c r="AK2" s="11">
+        <v>15.9</v>
+      </c>
+      <c r="AL2" s="11">
+        <v>19</v>
+      </c>
+      <c r="AM2" s="11">
+        <v>21</v>
+      </c>
+      <c r="AN2" s="11">
+        <v>15.2</v>
+      </c>
+      <c r="AO2" s="11">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C3">
+        <v>96.6</v>
+      </c>
+      <c r="D3">
+        <v>177.9</v>
+      </c>
+      <c r="E3">
+        <v>30.522860000000001</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2.2924663004366139</v>
+      </c>
+      <c r="G3" s="7">
+        <v>3.2963275683253142</v>
+      </c>
+      <c r="H3" s="7">
+        <v>3.5962606119850977</v>
+      </c>
+      <c r="I3" s="7">
+        <v>9.9179634647764754</v>
+      </c>
+      <c r="J3" s="7">
+        <v>30.244528510245708</v>
+      </c>
+      <c r="K3" s="7">
+        <v>24.720805236855398</v>
+      </c>
+      <c r="L3" s="7">
+        <v>10.02258770443075</v>
+      </c>
+      <c r="M3" s="7">
+        <v>12.098448087546171</v>
+      </c>
+      <c r="N3" s="7">
+        <v>9.5176464338012572</v>
+      </c>
+      <c r="O3" s="5">
+        <v>16</v>
+      </c>
+      <c r="P3" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>10</v>
+      </c>
+      <c r="R3" s="5">
+        <v>79</v>
+      </c>
+      <c r="S3" s="5">
+        <v>168</v>
+      </c>
+      <c r="T3" s="5">
+        <v>167</v>
+      </c>
+      <c r="U3" s="5">
+        <v>102</v>
+      </c>
+      <c r="V3" s="5">
+        <v>9</v>
+      </c>
+      <c r="W3" s="5">
+        <v>11</v>
+      </c>
+      <c r="X3" s="5">
+        <v>98</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>98</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>99</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>151</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>148</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>128</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>102</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>73</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>72</v>
+      </c>
+      <c r="AG3" s="11">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AH3" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="AI3" s="11">
+        <v>4.3</v>
+      </c>
+      <c r="AJ3" s="11">
+        <v>12</v>
+      </c>
+      <c r="AK3" s="11">
+        <v>13.4</v>
+      </c>
+      <c r="AL3" s="11">
+        <v>23.9</v>
+      </c>
+      <c r="AM3" s="11">
+        <v>18.2</v>
+      </c>
+      <c r="AN3" s="11">
+        <v>7.4</v>
+      </c>
+      <c r="AO3" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C4">
+        <v>79</v>
+      </c>
+      <c r="D4">
+        <v>158.19999999999999</v>
+      </c>
+      <c r="E4">
+        <v>31.56561</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2.2193962546623589</v>
+      </c>
+      <c r="G4" s="6">
+        <v>3.8590864298392749</v>
+      </c>
+      <c r="H4" s="6">
+        <v>9.1258977915698036</v>
+      </c>
+      <c r="I4" s="6">
+        <v>31.178050286074658</v>
+      </c>
+      <c r="J4" s="6">
+        <v>43.166397075110737</v>
+      </c>
+      <c r="K4" s="6">
+        <v>33.885819818179669</v>
+      </c>
+      <c r="L4" s="6">
+        <v>26.591577235861582</v>
+      </c>
+      <c r="M4" s="6">
+        <v>13.211979570514377</v>
+      </c>
+      <c r="N4" s="6">
+        <v>10.878635621616702</v>
+      </c>
+      <c r="O4" s="5">
+        <v>13</v>
+      </c>
+      <c r="P4" s="5">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>20</v>
+      </c>
+      <c r="R4" s="5">
+        <v>129</v>
+      </c>
+      <c r="S4" s="5">
+        <v>219</v>
+      </c>
+      <c r="T4" s="5">
+        <v>211</v>
+      </c>
+      <c r="U4" s="5">
+        <v>194</v>
+      </c>
+      <c r="V4" s="5">
+        <v>129</v>
+      </c>
+      <c r="W4" s="5">
+        <v>149</v>
+      </c>
+      <c r="X4" s="5">
+        <v>88</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>105</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>98</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>142</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>169</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>146</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>126</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>96</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>113</v>
+      </c>
+      <c r="AG4" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AH4" s="11">
+        <v>3.2</v>
+      </c>
+      <c r="AI4" s="11">
+        <v>2.1</v>
+      </c>
+      <c r="AJ4" s="11">
+        <v>9.1</v>
+      </c>
+      <c r="AK4" s="11">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="AL4" s="11">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="AM4" s="11">
+        <v>20</v>
+      </c>
+      <c r="AN4" s="11">
+        <v>15.8</v>
+      </c>
+      <c r="AO4" s="11">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C5">
+        <v>90.7</v>
+      </c>
+      <c r="D5">
+        <v>168</v>
+      </c>
+      <c r="E5">
+        <v>32.135770000000001</v>
+      </c>
+      <c r="F5" s="7">
+        <v>5.509524384884589</v>
+      </c>
+      <c r="G5" s="7">
+        <v>5.4745826838132245</v>
+      </c>
+      <c r="H5" s="7">
+        <v>5.9684297291815902</v>
+      </c>
+      <c r="I5" s="7">
+        <v>16.382719659178754</v>
+      </c>
+      <c r="J5" s="7">
+        <v>25.104172978795258</v>
+      </c>
+      <c r="K5" s="7">
+        <v>32.905658378664327</v>
+      </c>
+      <c r="L5" s="7">
+        <v>33.256210843963146</v>
+      </c>
+      <c r="M5" s="7">
+        <v>23.909091210954273</v>
+      </c>
+      <c r="N5" s="7">
+        <v>16.558127932761913</v>
+      </c>
+      <c r="O5" s="5">
+        <v>7</v>
+      </c>
+      <c r="P5" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>9</v>
+      </c>
+      <c r="R5" s="5">
+        <v>79</v>
+      </c>
+      <c r="S5" s="5">
+        <v>30</v>
+      </c>
+      <c r="T5" s="5">
+        <v>65</v>
+      </c>
+      <c r="U5" s="5">
+        <v>124</v>
+      </c>
+      <c r="V5" s="5">
+        <v>232</v>
+      </c>
+      <c r="W5" s="5">
+        <v>95</v>
+      </c>
+      <c r="X5" s="5">
+        <v>80</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>78</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>80</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>108</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>95</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>109</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>119</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>122</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>93</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>7.2</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="AJ5" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="AK5" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="AL5" s="11">
+        <v>3.2</v>
+      </c>
+      <c r="AM5" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AN5" s="11">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AO5" s="11">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C6">
+        <v>83</v>
+      </c>
+      <c r="D6">
+        <v>160</v>
+      </c>
+      <c r="E6">
+        <v>32.421880000000002</v>
+      </c>
+      <c r="F6" s="7">
+        <v>6.1938477864745272</v>
+      </c>
+      <c r="G6" s="7">
+        <v>6.8120805235857418</v>
+      </c>
+      <c r="H6" s="7">
+        <v>6.4237028969641541</v>
+      </c>
+      <c r="I6" s="7">
+        <v>24.373067620283045</v>
+      </c>
+      <c r="J6" s="7">
+        <v>41.116623133594047</v>
+      </c>
+      <c r="K6" s="7">
+        <v>41.670850760710216</v>
+      </c>
+      <c r="L6" s="7">
+        <v>30.478080662260819</v>
+      </c>
+      <c r="M6" s="7">
+        <v>17.363234770742427</v>
+      </c>
+      <c r="N6" s="7">
+        <v>10.471452742003326</v>
+      </c>
+      <c r="O6" s="5">
+        <v>11</v>
+      </c>
+      <c r="P6" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>15</v>
+      </c>
+      <c r="R6" s="5">
+        <v>58</v>
+      </c>
+      <c r="S6" s="5">
+        <v>203</v>
+      </c>
+      <c r="T6" s="5">
+        <v>291</v>
+      </c>
+      <c r="U6" s="5">
+        <v>197</v>
+      </c>
+      <c r="V6" s="5">
+        <v>140</v>
+      </c>
+      <c r="W6" s="5">
+        <v>40</v>
+      </c>
+      <c r="X6" s="5">
+        <v>94</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>91</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>89</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>133</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>191</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>199</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>162</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>102</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>72</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="AH6" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI6" s="11">
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="11">
+        <v>10</v>
+      </c>
+      <c r="AK6" s="11">
+        <v>20.9</v>
+      </c>
+      <c r="AL6" s="11">
+        <v>16.2</v>
+      </c>
+      <c r="AM6" s="11">
+        <v>14.8</v>
+      </c>
+      <c r="AN6" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="AO6" s="11">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C7">
+        <v>89.8</v>
+      </c>
+      <c r="D7">
+        <v>161.6</v>
+      </c>
+      <c r="E7">
+        <v>34.386949999999999</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4.9191446546570115</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2.4394049919560721</v>
+      </c>
+      <c r="H7" s="4">
+        <v>4.7138988182171531</v>
+      </c>
+      <c r="I7" s="4">
+        <v>5.1921829629978884</v>
+      </c>
+      <c r="J7" s="4">
+        <v>5.6846573137257934</v>
+      </c>
+      <c r="K7" s="4">
+        <v>5.1436132204257756</v>
+      </c>
+      <c r="L7" s="4">
+        <v>3.399086090038824</v>
+      </c>
+      <c r="M7" s="4">
+        <v>3.7690195881812727</v>
+      </c>
+      <c r="N7" s="4">
+        <v>5.3362007455669778</v>
+      </c>
+      <c r="O7" s="5">
+        <v>19</v>
+      </c>
+      <c r="P7" s="5">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>20</v>
+      </c>
+      <c r="R7" s="5">
+        <v>60</v>
+      </c>
+      <c r="S7" s="5">
+        <v>80</v>
+      </c>
+      <c r="T7" s="5">
+        <v>110</v>
+      </c>
+      <c r="U7" s="5">
+        <v>115</v>
+      </c>
+      <c r="V7" s="5">
+        <v>75</v>
+      </c>
+      <c r="W7" s="5">
+        <v>60</v>
+      </c>
+      <c r="X7" s="5">
+        <v>75</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>75</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>76</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>116</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>137</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>149</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>144</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>119</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>4.22</v>
+      </c>
+      <c r="AI7" s="11">
+        <v>3.72</v>
+      </c>
+      <c r="AJ7" s="11">
+        <v>10.6</v>
+      </c>
+      <c r="AK7" s="11">
+        <v>13.4</v>
+      </c>
+      <c r="AL7" s="11">
+        <v>15.7</v>
+      </c>
+      <c r="AM7" s="11">
+        <v>20.5</v>
+      </c>
+      <c r="AN7" s="11">
+        <v>19.2</v>
+      </c>
+      <c r="AO7" s="11">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C8">
+        <v>86.4</v>
+      </c>
+      <c r="D8">
+        <v>152.4</v>
+      </c>
+      <c r="E8">
+        <v>37.20008</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2.0085773545852308</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2.365239081222275</v>
+      </c>
+      <c r="H8" s="8">
+        <v>4.5015463626283161</v>
+      </c>
+      <c r="I8" s="8">
+        <v>9.7602619328284508</v>
+      </c>
+      <c r="J8" s="8">
+        <v>12.235479476834945</v>
+      </c>
+      <c r="K8" s="8">
+        <v>11.740782202762238</v>
+      </c>
+      <c r="L8" s="8">
+        <v>12.850865406994572</v>
+      </c>
+      <c r="M8" s="8">
+        <v>15.190842976479251</v>
+      </c>
+      <c r="N8" s="8">
+        <v>11.533272849723339</v>
+      </c>
+      <c r="O8" s="5">
+        <v>17</v>
+      </c>
+      <c r="P8" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>14</v>
+      </c>
+      <c r="R8" s="5">
+        <v>79</v>
+      </c>
+      <c r="S8" s="5">
+        <v>100</v>
+      </c>
+      <c r="T8" s="5">
+        <v>138</v>
+      </c>
+      <c r="U8" s="5">
+        <v>127</v>
+      </c>
+      <c r="V8" s="5">
+        <v>77</v>
+      </c>
+      <c r="W8" s="5">
+        <v>29</v>
+      </c>
+      <c r="X8" s="5">
+        <v>74</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>73</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>76</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>118</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>160</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>162</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>130</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>77</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>63</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>4.8</v>
+      </c>
+      <c r="AH8" s="11">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="AI8" s="11">
+        <v>4.59</v>
+      </c>
+      <c r="AJ8" s="11">
+        <v>8</v>
+      </c>
+      <c r="AK8" s="11">
+        <v>23.1</v>
+      </c>
+      <c r="AL8" s="11">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="AM8" s="11">
+        <v>22.8</v>
+      </c>
+      <c r="AN8" s="11">
+        <v>14</v>
+      </c>
+      <c r="AO8" s="11">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C9">
+        <v>97</v>
+      </c>
+      <c r="D9">
+        <v>154.9</v>
+      </c>
+      <c r="E9">
+        <v>40.426760000000002</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3.14540261781924</v>
+      </c>
+      <c r="G9" s="7">
+        <v>3.3389637812502486</v>
+      </c>
+      <c r="H9" s="7">
+        <v>3.1807270004703891</v>
+      </c>
+      <c r="I9" s="7">
+        <v>3.6319050865907361</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1.9126971264223105</v>
+      </c>
+      <c r="K9" s="7">
+        <v>2.2199860689569966</v>
+      </c>
+      <c r="L9" s="7">
+        <v>2.5400160991051073</v>
+      </c>
+      <c r="M9" s="7">
+        <v>3.1004143589863231</v>
+      </c>
+      <c r="N9" s="7">
+        <v>7.0238602295570329</v>
+      </c>
+      <c r="O9" s="5">
+        <v>23</v>
+      </c>
+      <c r="P9" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>12</v>
+      </c>
+      <c r="R9" s="5">
+        <v>47</v>
+      </c>
+      <c r="S9" s="5">
+        <v>93</v>
+      </c>
+      <c r="T9" s="5">
+        <v>99</v>
+      </c>
+      <c r="U9" s="5">
+        <v>196.33</v>
+      </c>
+      <c r="V9" s="5">
+        <v>41</v>
+      </c>
+      <c r="W9" s="5">
+        <v>28</v>
+      </c>
+      <c r="X9" s="5">
+        <v>84</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>54</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>93</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>82</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>178</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>195</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>130.33000000000001</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>87</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>83</v>
+      </c>
+      <c r="AG9" s="12">
+        <v>5.8</v>
+      </c>
+      <c r="AH9" s="12">
+        <v>6.7</v>
+      </c>
+      <c r="AI9" s="12">
+        <v>6.1</v>
+      </c>
+      <c r="AJ9" s="12">
+        <v>8.35</v>
+      </c>
+      <c r="AK9" s="12">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="AL9" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="AM9" s="12">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="AN9" s="12">
+        <v>7.55</v>
+      </c>
+      <c r="AO9" s="12">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C10">
+        <v>106.14</v>
+      </c>
+      <c r="D10">
+        <v>158.75</v>
+      </c>
+      <c r="E10">
+        <v>42.116439999999997</v>
+      </c>
+      <c r="F10" s="8">
+        <v>5.7675140456900138</v>
+      </c>
+      <c r="G10" s="8">
+        <v>4.585401057983316</v>
+      </c>
+      <c r="H10" s="8">
+        <v>5.0315728832587103</v>
+      </c>
+      <c r="I10" s="8">
+        <v>21.334436132955613</v>
+      </c>
+      <c r="J10" s="8">
+        <v>23.661664176340921</v>
+      </c>
+      <c r="K10" s="8">
+        <v>23.132912414125208</v>
+      </c>
+      <c r="L10" s="7">
+        <v>17.48</v>
+      </c>
+      <c r="M10" s="8">
+        <v>15.170177688173705</v>
+      </c>
+      <c r="N10" s="8">
+        <v>9.5997096780199858</v>
+      </c>
+      <c r="O10" s="5">
+        <v>34</v>
+      </c>
+      <c r="P10" s="5">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>32</v>
+      </c>
+      <c r="R10" s="5">
+        <v>121</v>
+      </c>
+      <c r="S10" s="5">
+        <v>272</v>
+      </c>
+      <c r="T10" s="5">
+        <v>324</v>
+      </c>
+      <c r="U10" s="5">
+        <v>395</v>
+      </c>
+      <c r="V10" s="5">
+        <v>710</v>
+      </c>
+      <c r="W10" s="5">
+        <v>217</v>
+      </c>
+      <c r="X10" s="5">
+        <v>89</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>87</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>86</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>107</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>151</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>136</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>136</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>147</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>89</v>
+      </c>
+      <c r="AG10" s="11">
+        <v>5.32</v>
+      </c>
+      <c r="AH10" s="11">
+        <v>4.25</v>
+      </c>
+      <c r="AI10" s="11">
+        <v>4.22</v>
+      </c>
+      <c r="AJ10" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="AK10" s="11">
+        <v>1.9</v>
+      </c>
+      <c r="AL10" s="11">
+        <v>17.5</v>
+      </c>
+      <c r="AM10" s="11">
+        <v>29</v>
+      </c>
+      <c r="AN10" s="11">
+        <v>14.9</v>
+      </c>
+      <c r="AO10" s="11">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C11">
+        <v>126</v>
+      </c>
+      <c r="D11">
+        <v>164</v>
+      </c>
+      <c r="E11">
+        <v>46.847110000000001</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.26993036801595216</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.35734186835180726</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1.295069492390619</v>
+      </c>
+      <c r="I11" s="6">
+        <v>14.481548773524642</v>
+      </c>
+      <c r="J11" s="6">
+        <v>21.204692353767896</v>
+      </c>
+      <c r="K11" s="6">
+        <v>18.407888437972314</v>
+      </c>
+      <c r="L11" s="6">
+        <v>10.728741943947322</v>
+      </c>
+      <c r="M11" s="6">
+        <v>8.7327863437864295</v>
+      </c>
+      <c r="N11" s="6">
+        <v>6.4477761768723685</v>
+      </c>
+      <c r="O11" s="5">
+        <v>37</v>
+      </c>
+      <c r="P11" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>40</v>
+      </c>
+      <c r="R11" s="5">
+        <v>85</v>
+      </c>
+      <c r="S11" s="5">
+        <v>293</v>
+      </c>
+      <c r="T11" s="5">
+        <v>291</v>
+      </c>
+      <c r="U11" s="5">
+        <v>354</v>
+      </c>
+      <c r="V11" s="5">
+        <v>131</v>
+      </c>
+      <c r="W11" s="5">
+        <v>28</v>
+      </c>
+      <c r="X11" s="5">
+        <v>90</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>89</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>94</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>103</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>137</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>126</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>111</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>71</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>60</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>5.3</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>5.4</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>5.4</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>18.5</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>27.1</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>12.53</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12">
+        <f>AVERAGE(C2:C11)</f>
+        <v>92.263999999999996</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:E12" si="0">AVERAGE(D2:D11)</f>
+        <v>161.57499999999999</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>35.418596000000001</v>
+      </c>
+      <c r="F12" s="16">
+        <f>AVERAGE(F2:F11)</f>
+        <v>4.6025803767225533</v>
+      </c>
+      <c r="G12" s="16">
+        <f t="shared" ref="G12:L12" si="1">AVERAGE(G2:G11)</f>
+        <v>4.504842798632728</v>
+      </c>
+      <c r="H12" s="16">
+        <f t="shared" si="1"/>
+        <v>5.798710558666583</v>
+      </c>
+      <c r="I12" s="16">
+        <f t="shared" si="1"/>
+        <v>16.478213591921026</v>
+      </c>
+      <c r="J12" s="16">
+        <f t="shared" si="1"/>
+        <v>23.086091214483758</v>
+      </c>
+      <c r="K12" s="16">
+        <f t="shared" si="1"/>
+        <v>22.189831653865209</v>
+      </c>
+      <c r="L12" s="16">
+        <f t="shared" si="1"/>
+        <v>17.479716598660211</v>
+      </c>
+      <c r="M12" s="16">
+        <f t="shared" ref="M12" si="2">AVERAGE(M2:M11)</f>
+        <v>13.463599459536422</v>
+      </c>
+      <c r="N12" s="16">
+        <f t="shared" ref="N12" si="3">AVERAGE(N2:N11)</f>
+        <v>10.290668240992291</v>
+      </c>
+      <c r="O12" s="16">
+        <f t="shared" ref="O12" si="4">AVERAGE(O2:O11)</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="P12" s="16">
+        <f t="shared" ref="P12" si="5">AVERAGE(P2:P11)</f>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="Q12" s="16">
+        <f t="shared" ref="Q12" si="6">AVERAGE(Q2:Q11)</f>
+        <v>19.2</v>
+      </c>
+      <c r="R12" s="16">
+        <f t="shared" ref="R12" si="7">AVERAGE(R2:R11)</f>
+        <v>84</v>
+      </c>
+      <c r="S12" s="16">
+        <f t="shared" ref="S12" si="8">AVERAGE(S2:S11)</f>
+        <v>161.80000000000001</v>
+      </c>
+      <c r="T12" s="16">
+        <f t="shared" ref="T12" si="9">AVERAGE(T2:T11)</f>
+        <v>184.1</v>
+      </c>
+      <c r="U12" s="16">
+        <f t="shared" ref="U12" si="10">AVERAGE(U2:U11)</f>
+        <v>196.333</v>
+      </c>
+      <c r="V12" s="16">
+        <f t="shared" ref="V12" si="11">AVERAGE(V2:V11)</f>
+        <v>163</v>
+      </c>
+      <c r="W12" s="16">
+        <f t="shared" ref="W12" si="12">AVERAGE(W2:W11)</f>
+        <v>74.7</v>
+      </c>
+      <c r="X12" s="16">
+        <f t="shared" ref="X12" si="13">AVERAGE(X2:X11)</f>
+        <v>84.7</v>
+      </c>
+      <c r="Y12" s="16">
+        <f t="shared" ref="Y12" si="14">AVERAGE(Y2:Y11)</f>
+        <v>82.1</v>
+      </c>
+      <c r="Z12" s="16">
+        <f t="shared" ref="Z12" si="15">AVERAGE(Z2:Z11)</f>
+        <v>86.6</v>
+      </c>
+      <c r="AA12" s="16">
+        <f t="shared" ref="AA12" si="16">AVERAGE(AA2:AA11)</f>
+        <v>118</v>
+      </c>
+      <c r="AB12" s="16">
+        <f t="shared" ref="AB12" si="17">AVERAGE(AB2:AB11)</f>
+        <v>151.4</v>
+      </c>
+      <c r="AC12" s="16">
+        <f t="shared" ref="AC12" si="18">AVERAGE(AC2:AC11)</f>
+        <v>147.69999999999999</v>
+      </c>
+      <c r="AD12" s="16">
+        <f t="shared" ref="AD12" si="19">AVERAGE(AD2:AD11)</f>
+        <v>130.333</v>
+      </c>
+      <c r="AE12" s="16">
+        <f t="shared" ref="AE12" si="20">AVERAGE(AE2:AE11)</f>
+        <v>96.6</v>
+      </c>
+      <c r="AF12" s="16">
+        <f t="shared" ref="AF12" si="21">AVERAGE(AF2:AF11)</f>
+        <v>81.7</v>
+      </c>
+      <c r="AG12" s="16">
+        <f t="shared" ref="AG12" si="22">AVERAGE(AG2:AG11)</f>
+        <v>5.3189999999999991</v>
+      </c>
+      <c r="AH12" s="16">
+        <f t="shared" ref="AH12" si="23">AVERAGE(AH2:AH11)</f>
+        <v>4.2490000000000006</v>
+      </c>
+      <c r="AI12" s="16">
+        <f t="shared" ref="AI12" si="24">AVERAGE(AI2:AI11)</f>
+        <v>4.2169999999999996</v>
+      </c>
+      <c r="AJ12" s="16">
+        <f t="shared" ref="AJ12" si="25">AVERAGE(AJ2:AJ11)</f>
+        <v>8.6790000000000003</v>
+      </c>
+      <c r="AK12" s="16">
+        <f t="shared" ref="AK12" si="26">AVERAGE(AK2:AK11)</f>
+        <v>14.334999999999999</v>
+      </c>
+      <c r="AL12" s="16">
+        <f t="shared" ref="AL12" si="27">AVERAGE(AL2:AL11)</f>
+        <v>16.578000000000003</v>
+      </c>
+      <c r="AM12" s="16">
+        <f t="shared" ref="AM12" si="28">AVERAGE(AM2:AM11)</f>
+        <v>19.756</v>
+      </c>
+      <c r="AN12" s="16">
+        <f t="shared" ref="AN12" si="29">AVERAGE(AN2:AN11)</f>
+        <v>12.528000000000002</v>
+      </c>
+      <c r="AO12" s="16">
+        <f t="shared" ref="AO12" si="30">AVERAGE(AO2:AO11)</f>
+        <v>12.969999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:BP11">
+    <sortCondition ref="E1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO20"/>
+  <sheetViews>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2:AO20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C2">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="D2">
+        <v>168.1</v>
+      </c>
+      <c r="E2">
+        <v>27.10774</v>
+      </c>
+      <c r="F2" s="4">
+        <v>10.537506331162014</v>
+      </c>
+      <c r="G2" s="7">
+        <v>12.724034259107984</v>
+      </c>
+      <c r="H2" s="6">
+        <v>12.828308758147227</v>
+      </c>
+      <c r="I2" s="6">
+        <v>10.485177945783125</v>
+      </c>
+      <c r="J2" s="6">
+        <v>17.60250707301968</v>
+      </c>
+      <c r="K2" s="7">
+        <v>22.592605920139313</v>
+      </c>
+      <c r="L2" s="8">
+        <v>33.687574311767257</v>
+      </c>
+      <c r="M2" s="8">
+        <v>33.168884694865127</v>
+      </c>
+      <c r="N2" s="7">
+        <v>29.933659034904217</v>
+      </c>
+      <c r="O2" s="5">
+        <v>7</v>
+      </c>
+      <c r="P2" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>6</v>
+      </c>
+      <c r="R2" s="5">
+        <v>14</v>
+      </c>
+      <c r="S2" s="5">
+        <v>34</v>
+      </c>
+      <c r="T2" s="5">
+        <v>62</v>
+      </c>
+      <c r="U2" s="5">
+        <v>57</v>
+      </c>
+      <c r="V2" s="5">
+        <v>61</v>
+      </c>
+      <c r="W2" s="5">
+        <v>43</v>
+      </c>
+      <c r="X2" s="5">
+        <v>68</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>66</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>64</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>73</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>141</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>160</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>164</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>126</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>78</v>
+      </c>
+      <c r="AG2" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="AH2" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AI2" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="AJ2" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="AK2" s="11">
+        <v>9.1</v>
+      </c>
+      <c r="AL2" s="11">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AM2" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="AN2" s="11">
+        <v>13.1</v>
+      </c>
+      <c r="AO2" s="11">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C3">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="D3">
+        <v>167</v>
+      </c>
+      <c r="E3">
+        <v>28.183150000000001</v>
+      </c>
+      <c r="F3" s="4">
+        <v>7.8376747471944066</v>
+      </c>
+      <c r="G3" s="7">
+        <v>9.535926136503722</v>
+      </c>
+      <c r="H3" s="6">
+        <v>11.000132829528882</v>
+      </c>
+      <c r="I3" s="6">
+        <v>9.0840814320891123</v>
+      </c>
+      <c r="J3" s="6">
+        <v>11.52044756054547</v>
+      </c>
+      <c r="K3" s="7">
+        <v>10.168959942523712</v>
+      </c>
+      <c r="L3" s="8">
+        <v>12.347951857965944</v>
+      </c>
+      <c r="M3" s="8">
+        <v>10.088743080335194</v>
+      </c>
+      <c r="N3" s="7">
+        <v>16.003219106631544</v>
+      </c>
+      <c r="O3" s="5">
+        <v>11</v>
+      </c>
+      <c r="P3" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>8</v>
+      </c>
+      <c r="R3" s="5">
+        <v>77</v>
+      </c>
+      <c r="S3" s="5">
+        <v>132</v>
+      </c>
+      <c r="T3" s="5">
+        <v>65</v>
+      </c>
+      <c r="U3" s="5">
+        <v>51</v>
+      </c>
+      <c r="V3" s="5">
+        <v>105</v>
+      </c>
+      <c r="W3" s="5">
+        <v>31</v>
+      </c>
+      <c r="X3" s="5">
+        <v>82</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>81</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>83</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>131</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>170</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>140</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>123</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>133</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>84</v>
+      </c>
+      <c r="AG3" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="AH3" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="AI3" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="AJ3" s="11">
+        <v>8.6</v>
+      </c>
+      <c r="AK3" s="11">
+        <v>13.9</v>
+      </c>
+      <c r="AL3" s="11">
+        <v>12.2</v>
+      </c>
+      <c r="AM3" s="11">
+        <v>11.4</v>
+      </c>
+      <c r="AN3" s="11">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="AO3" s="11">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C4">
+        <v>73</v>
+      </c>
+      <c r="D4">
+        <v>160</v>
+      </c>
+      <c r="E4">
+        <v>28.515630000000002</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3.0876454453103053</v>
+      </c>
+      <c r="G4" s="7">
+        <v>7.7925325918578467</v>
+      </c>
+      <c r="H4" s="6">
+        <v>10.80208100885871</v>
+      </c>
+      <c r="I4" s="6">
+        <v>15.049542387736253</v>
+      </c>
+      <c r="J4" s="6">
+        <v>12.917918168468885</v>
+      </c>
+      <c r="K4" s="7">
+        <v>22.21170541447664</v>
+      </c>
+      <c r="L4" s="8">
+        <v>21.308937902390966</v>
+      </c>
+      <c r="M4" s="8">
+        <v>12.354210643952467</v>
+      </c>
+      <c r="N4" s="7">
+        <v>11.669483118855648</v>
+      </c>
+      <c r="O4" s="5">
+        <v>12.3</v>
+      </c>
+      <c r="P4" s="5">
+        <v>17.59</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>13.2</v>
+      </c>
+      <c r="R4" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="S4" s="5">
+        <v>86</v>
+      </c>
+      <c r="T4" s="5">
+        <v>264.3</v>
+      </c>
+      <c r="U4" s="5">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="V4" s="5">
+        <v>57.3</v>
+      </c>
+      <c r="W4" s="5">
+        <v>21.3</v>
+      </c>
+      <c r="X4" s="5">
+        <v>51</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>65</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>82.75</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>70</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>99</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>105</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>69</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>61</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>55</v>
+      </c>
+      <c r="AG4" s="13">
+        <v>2.15</v>
+      </c>
+      <c r="AH4" s="13">
+        <v>2.06</v>
+      </c>
+      <c r="AI4" s="13">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="AJ4" s="13">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="AK4" s="13">
+        <v>3.35</v>
+      </c>
+      <c r="AL4" s="13">
+        <v>18.3</v>
+      </c>
+      <c r="AM4" s="13">
+        <v>15.7</v>
+      </c>
+      <c r="AN4" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="AO4" s="13">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C5">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="D5">
+        <v>159.9</v>
+      </c>
+      <c r="E5">
+        <v>29.88109</v>
+      </c>
+      <c r="F5" s="4">
+        <v>22.88718560640325</v>
+      </c>
+      <c r="G5" s="7">
+        <v>17.756194983552163</v>
+      </c>
+      <c r="H5" s="6">
+        <v>19.719988561237127</v>
+      </c>
+      <c r="I5" s="6">
+        <v>45.107849482093499</v>
+      </c>
+      <c r="J5" s="6">
+        <v>50.470941641216655</v>
+      </c>
+      <c r="K5" s="7">
+        <v>73.694712274780102</v>
+      </c>
+      <c r="L5" s="8">
+        <v>55.497748078343264</v>
+      </c>
+      <c r="M5" s="8">
+        <v>37.308452010584688</v>
+      </c>
+      <c r="N5" s="7">
+        <v>24.018924578437023</v>
+      </c>
+      <c r="O5" s="5">
+        <v>18</v>
+      </c>
+      <c r="P5" s="5">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>16.89</v>
+      </c>
+      <c r="R5" s="5">
+        <v>23</v>
+      </c>
+      <c r="S5" s="5">
+        <v>15</v>
+      </c>
+      <c r="T5" s="5">
+        <v>80</v>
+      </c>
+      <c r="U5" s="5">
+        <v>57</v>
+      </c>
+      <c r="V5" s="5">
+        <v>108</v>
+      </c>
+      <c r="W5" s="5">
+        <v>67</v>
+      </c>
+      <c r="X5" s="5">
+        <v>63</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>60</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>82.75</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>69</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>131</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>154</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>156</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>179</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>93</v>
+      </c>
+      <c r="AG5" s="12">
+        <v>4.3</v>
+      </c>
+      <c r="AH5" s="12">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="12">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="AJ5" s="12">
+        <v>5.15</v>
+      </c>
+      <c r="AK5" s="12">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AL5" s="12">
+        <v>14.9</v>
+      </c>
+      <c r="AM5" s="12">
+        <v>15.1</v>
+      </c>
+      <c r="AN5" s="12">
+        <v>18.45</v>
+      </c>
+      <c r="AO5" s="12">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C6">
+        <v>79.38</v>
+      </c>
+      <c r="D6">
+        <v>160</v>
+      </c>
+      <c r="E6">
+        <v>31.007809999999999</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5.0901032088719269</v>
+      </c>
+      <c r="G6" s="7">
+        <v>7.3134716153415713</v>
+      </c>
+      <c r="H6" s="6">
+        <v>11.312595809665611</v>
+      </c>
+      <c r="I6" s="6">
+        <v>22.099171185137443</v>
+      </c>
+      <c r="J6" s="6">
+        <v>31.111018347515753</v>
+      </c>
+      <c r="K6" s="7">
+        <v>27.840103061608641</v>
+      </c>
+      <c r="L6" s="8">
+        <v>25.917283935874693</v>
+      </c>
+      <c r="M6" s="8">
+        <v>19.475000655650522</v>
+      </c>
+      <c r="N6" s="7">
+        <v>14.001039447649024</v>
+      </c>
+      <c r="O6" s="5">
+        <v>8</v>
+      </c>
+      <c r="P6" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>9</v>
+      </c>
+      <c r="R6" s="5">
+        <v>36</v>
+      </c>
+      <c r="S6" s="5">
+        <v>75</v>
+      </c>
+      <c r="T6" s="5">
+        <v>109</v>
+      </c>
+      <c r="U6" s="5">
+        <v>135</v>
+      </c>
+      <c r="V6" s="5">
+        <v>76</v>
+      </c>
+      <c r="W6" s="5">
+        <v>28</v>
+      </c>
+      <c r="X6" s="5">
+        <v>79</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>79</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>74</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>117</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>176</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>207</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>213</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>132</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>68</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="AH6" s="11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AI6" s="11">
+        <v>2.6</v>
+      </c>
+      <c r="AJ6" s="11">
+        <v>6</v>
+      </c>
+      <c r="AK6" s="11">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AL6" s="11">
+        <v>21.8</v>
+      </c>
+      <c r="AM6" s="11">
+        <v>27.2</v>
+      </c>
+      <c r="AN6" s="11">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AO6" s="11">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C7">
+        <v>74.8</v>
+      </c>
+      <c r="D7">
+        <v>154.4</v>
+      </c>
+      <c r="E7">
+        <v>31.37668</v>
+      </c>
+      <c r="F7" s="4">
+        <v>6.0413723056521116</v>
+      </c>
+      <c r="G7" s="7">
+        <v>5.6999938671070147</v>
+      </c>
+      <c r="H7" s="6">
+        <v>7.1677314107664882</v>
+      </c>
+      <c r="I7" s="6">
+        <v>10.127160883659759</v>
+      </c>
+      <c r="J7" s="6">
+        <v>26.106539785546488</v>
+      </c>
+      <c r="K7" s="7">
+        <v>30.511015221090418</v>
+      </c>
+      <c r="L7" s="8">
+        <v>36.254515184359597</v>
+      </c>
+      <c r="M7" s="8">
+        <v>31.547926880444884</v>
+      </c>
+      <c r="N7" s="7">
+        <v>23.518792046379367</v>
+      </c>
+      <c r="O7" s="5">
+        <v>14</v>
+      </c>
+      <c r="P7" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>13</v>
+      </c>
+      <c r="R7" s="5">
+        <v>31</v>
+      </c>
+      <c r="S7" s="5">
+        <v>80</v>
+      </c>
+      <c r="T7" s="5">
+        <v>86</v>
+      </c>
+      <c r="U7" s="5">
+        <v>116</v>
+      </c>
+      <c r="V7" s="5">
+        <v>63</v>
+      </c>
+      <c r="W7" s="5">
+        <v>27</v>
+      </c>
+      <c r="X7" s="5">
+        <v>111</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>101</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>100</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>121</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>171</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>151</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>133</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>84</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>80</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>4.8</v>
+      </c>
+      <c r="AI7" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="AJ7" s="11">
+        <v>3.4</v>
+      </c>
+      <c r="AK7" s="11">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AL7" s="11">
+        <v>14.9</v>
+      </c>
+      <c r="AM7" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="AN7" s="11">
+        <v>13.2</v>
+      </c>
+      <c r="AO7" s="11">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C8">
+        <v>74.5</v>
+      </c>
+      <c r="D8">
+        <v>149.86000000000001</v>
+      </c>
+      <c r="E8">
+        <v>33.173000000000002</v>
+      </c>
+      <c r="F8" s="4">
+        <v>11.889196480412577</v>
+      </c>
+      <c r="G8" s="7">
+        <v>12.191407805479368</v>
+      </c>
+      <c r="H8" s="6">
+        <v>10.07927236882764</v>
+      </c>
+      <c r="I8" s="6">
+        <v>21.983697718139968</v>
+      </c>
+      <c r="J8" s="6">
+        <v>28.253189518407972</v>
+      </c>
+      <c r="K8" s="7">
+        <v>26.653114212761448</v>
+      </c>
+      <c r="L8" s="8">
+        <v>29.330920438354326</v>
+      </c>
+      <c r="M8" s="8">
+        <v>19.633473657690693</v>
+      </c>
+      <c r="N8" s="7">
+        <v>17.501034703334916</v>
+      </c>
+      <c r="O8" s="5">
+        <v>24</v>
+      </c>
+      <c r="P8" s="5">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>14</v>
+      </c>
+      <c r="R8" s="5">
+        <v>173</v>
+      </c>
+      <c r="S8" s="5">
+        <v>155</v>
+      </c>
+      <c r="T8" s="5">
+        <v>200</v>
+      </c>
+      <c r="U8" s="5">
+        <v>178</v>
+      </c>
+      <c r="V8" s="5">
+        <v>129</v>
+      </c>
+      <c r="W8" s="5">
+        <v>59</v>
+      </c>
+      <c r="X8" s="5">
+        <v>90</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>95</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>93</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>184</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>199</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>189</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>184</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>119</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>66</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="AH8" s="11">
+        <v>5.3</v>
+      </c>
+      <c r="AI8" s="11">
+        <v>5.3</v>
+      </c>
+      <c r="AJ8" s="11">
+        <v>13</v>
+      </c>
+      <c r="AK8" s="11">
+        <v>18.8</v>
+      </c>
+      <c r="AL8" s="11">
+        <v>43.6</v>
+      </c>
+      <c r="AM8" s="11">
+        <v>29.2</v>
+      </c>
+      <c r="AN8" s="11">
+        <v>18.2</v>
+      </c>
+      <c r="AO8" s="11">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C9">
+        <v>83.01</v>
+      </c>
+      <c r="D9">
+        <v>157.5</v>
+      </c>
+      <c r="E9">
+        <v>33.463340000000002</v>
+      </c>
+      <c r="F9" s="4">
+        <v>10.097924716083169</v>
+      </c>
+      <c r="G9" s="7">
+        <v>12.318313568154837</v>
+      </c>
+      <c r="H9" s="6">
+        <v>10.784644781223829</v>
+      </c>
+      <c r="I9" s="6">
+        <v>9.7978943292940404</v>
+      </c>
+      <c r="J9" s="6">
+        <v>17.633307002041455</v>
+      </c>
+      <c r="K9" s="7">
+        <v>19.530056845631986</v>
+      </c>
+      <c r="L9" s="8">
+        <v>21.266620663222366</v>
+      </c>
+      <c r="M9" s="8">
+        <v>11.579627335988041</v>
+      </c>
+      <c r="N9" s="7">
+        <v>12.874672715766746</v>
+      </c>
+      <c r="O9" s="5">
+        <v>15</v>
+      </c>
+      <c r="P9" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>14</v>
+      </c>
+      <c r="R9" s="5">
+        <v>17</v>
+      </c>
+      <c r="S9" s="5">
+        <v>101</v>
+      </c>
+      <c r="T9" s="5">
+        <v>190</v>
+      </c>
+      <c r="U9" s="5">
+        <v>258</v>
+      </c>
+      <c r="V9" s="5">
+        <v>110</v>
+      </c>
+      <c r="W9" s="5">
+        <v>51</v>
+      </c>
+      <c r="X9" s="5">
+        <v>64</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>56</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>61</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>73</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>127</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>154</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>152</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>77</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>75</v>
+      </c>
+      <c r="AG9" s="11">
+        <v>15.3</v>
+      </c>
+      <c r="AH9" s="11">
+        <v>6.6</v>
+      </c>
+      <c r="AI9" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="AJ9" s="11">
+        <v>8.9</v>
+      </c>
+      <c r="AK9" s="11">
+        <v>6.9</v>
+      </c>
+      <c r="AL9" s="11">
+        <v>15.5</v>
+      </c>
+      <c r="AM9" s="11">
+        <v>14.4</v>
+      </c>
+      <c r="AN9" s="11">
+        <v>20.2</v>
+      </c>
+      <c r="AO9" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C10">
+        <v>98.4</v>
+      </c>
+      <c r="D10">
+        <v>169</v>
+      </c>
+      <c r="E10">
+        <v>34.452579999999998</v>
+      </c>
+      <c r="F10" s="4">
+        <v>9.6579288489890285</v>
+      </c>
+      <c r="G10" s="4">
+        <v>8.1153592898761762</v>
+      </c>
+      <c r="H10" s="4">
+        <v>7.67217515222411</v>
+      </c>
+      <c r="I10" s="4">
+        <v>8.4715599135740849</v>
+      </c>
+      <c r="J10" s="4">
+        <v>8.8093455770453151</v>
+      </c>
+      <c r="K10" s="4">
+        <v>17.472287201935185</v>
+      </c>
+      <c r="L10" s="4">
+        <v>27.206624352913785</v>
+      </c>
+      <c r="M10" s="4">
+        <v>31.003552660570982</v>
+      </c>
+      <c r="N10" s="4">
+        <v>24.81561906674191</v>
+      </c>
+      <c r="O10" s="5">
+        <v>17</v>
+      </c>
+      <c r="P10" s="5">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>18</v>
+      </c>
+      <c r="R10" s="5">
+        <v>33</v>
+      </c>
+      <c r="S10" s="5">
+        <v>172</v>
+      </c>
+      <c r="T10" s="5">
+        <v>138</v>
+      </c>
+      <c r="U10" s="5">
+        <v>116</v>
+      </c>
+      <c r="V10" s="5">
+        <v>113</v>
+      </c>
+      <c r="W10" s="5">
+        <v>51</v>
+      </c>
+      <c r="X10" s="5">
+        <v>75</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>74</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>76</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>84</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>127</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>124</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>109</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>86</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>62</v>
+      </c>
+      <c r="AG10" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="AH10" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AI10" s="11">
+        <v>4</v>
+      </c>
+      <c r="AJ10" s="11">
+        <v>5.4</v>
+      </c>
+      <c r="AK10" s="11">
+        <v>22</v>
+      </c>
+      <c r="AL10" s="11">
+        <v>23.9</v>
+      </c>
+      <c r="AM10" s="11">
+        <v>15</v>
+      </c>
+      <c r="AN10" s="11">
+        <v>20.7</v>
+      </c>
+      <c r="AO10" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C11">
+        <v>96</v>
+      </c>
+      <c r="D11">
+        <v>165</v>
+      </c>
+      <c r="E11">
+        <v>35.261710000000001</v>
+      </c>
+      <c r="F11" s="9">
+        <v>8.8134858437990857</v>
+      </c>
+      <c r="G11" s="7">
+        <v>8.538887301433709</v>
+      </c>
+      <c r="H11" s="7">
+        <v>8.1328119450036418</v>
+      </c>
+      <c r="I11" s="7">
+        <v>8.3104972466358689</v>
+      </c>
+      <c r="J11" s="7">
+        <v>26.43</v>
+      </c>
+      <c r="K11" s="7">
+        <v>15.316789089280846</v>
+      </c>
+      <c r="L11" s="8">
+        <v>19.824998460933315</v>
+      </c>
+      <c r="M11" s="8">
+        <v>23.336086051809822</v>
+      </c>
+      <c r="N11" s="7">
+        <v>25.708214277649773</v>
+      </c>
+      <c r="O11" s="10">
+        <v>14</v>
+      </c>
+      <c r="P11" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>13</v>
+      </c>
+      <c r="R11" s="5">
+        <v>45</v>
+      </c>
+      <c r="S11" s="5">
+        <v>118.53</v>
+      </c>
+      <c r="T11" s="5">
+        <v>138</v>
+      </c>
+      <c r="U11" s="5">
+        <v>202</v>
+      </c>
+      <c r="V11" s="5">
+        <v>114.14</v>
+      </c>
+      <c r="W11" s="5">
+        <v>90</v>
+      </c>
+      <c r="X11" s="5">
+        <v>79</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>81</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>78</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>95</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>150.88</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>169</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>167</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>104.71</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>74</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>3.8</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>3.7</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>8.44</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>15.53</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>4.3</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>9</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>16.55</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C12">
+        <v>88.6</v>
+      </c>
+      <c r="D12">
+        <v>154.94</v>
+      </c>
+      <c r="E12">
+        <v>36.906820000000003</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3.0765054058618664</v>
+      </c>
+      <c r="G12" s="4">
+        <v>3.8955266472093553</v>
+      </c>
+      <c r="H12" s="4">
+        <v>5.7889858142057493</v>
+      </c>
+      <c r="I12" s="4">
+        <v>12.123195990204852</v>
+      </c>
+      <c r="J12" s="4">
+        <v>12.289603702067115</v>
+      </c>
+      <c r="K12" s="4">
+        <v>18.66147616686148</v>
+      </c>
+      <c r="L12" s="4">
+        <v>17.452228037886549</v>
+      </c>
+      <c r="M12" s="4">
+        <v>12.920058153914473</v>
+      </c>
+      <c r="N12" s="4">
+        <v>7.0816697548317116</v>
+      </c>
+      <c r="O12" s="5">
+        <v>23</v>
+      </c>
+      <c r="P12" s="5">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>17</v>
+      </c>
+      <c r="R12" s="5">
+        <v>84</v>
+      </c>
+      <c r="S12" s="5">
+        <v>177</v>
+      </c>
+      <c r="T12" s="5">
+        <v>133</v>
+      </c>
+      <c r="U12" s="5">
+        <v>118</v>
+      </c>
+      <c r="V12" s="5">
+        <v>78</v>
+      </c>
+      <c r="W12" s="5">
+        <v>38</v>
+      </c>
+      <c r="X12" s="5">
+        <v>80</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>79</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>77</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>95</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>123</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>147</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>136</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>105</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>61</v>
+      </c>
+      <c r="AG12" s="11">
+        <v>4.83</v>
+      </c>
+      <c r="AH12" s="11">
+        <v>4.92</v>
+      </c>
+      <c r="AI12" s="11">
+        <v>4.04</v>
+      </c>
+      <c r="AJ12" s="11">
+        <v>12.3</v>
+      </c>
+      <c r="AK12" s="11">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="AL12" s="11">
+        <v>21.6</v>
+      </c>
+      <c r="AM12" s="11">
+        <v>27</v>
+      </c>
+      <c r="AN12" s="11">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="AO12" s="11">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C13">
+        <v>114</v>
+      </c>
+      <c r="D13">
+        <v>175</v>
+      </c>
+      <c r="E13">
+        <v>37.224490000000003</v>
+      </c>
+      <c r="F13" s="9">
+        <v>23.938703916185432</v>
+      </c>
+      <c r="G13" s="7">
+        <v>21.72942458913834</v>
+      </c>
+      <c r="H13" s="7">
+        <v>26.346475736358759</v>
+      </c>
+      <c r="I13" s="7">
+        <v>18.43</v>
+      </c>
+      <c r="J13" s="7">
+        <v>47.121529383896544</v>
+      </c>
+      <c r="K13" s="7">
+        <v>45.387062952891867</v>
+      </c>
+      <c r="L13" s="8">
+        <v>27.342525013622595</v>
+      </c>
+      <c r="M13" s="8">
+        <v>25.42933971065295</v>
+      </c>
+      <c r="N13" s="7">
+        <v>20.02264324173909</v>
+      </c>
+      <c r="O13" s="10">
+        <v>24</v>
+      </c>
+      <c r="P13" s="5">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>23</v>
+      </c>
+      <c r="R13" s="5">
+        <v>88</v>
+      </c>
+      <c r="S13" s="5">
+        <v>131</v>
+      </c>
+      <c r="T13" s="5">
+        <v>275</v>
+      </c>
+      <c r="U13" s="5">
+        <v>203</v>
+      </c>
+      <c r="V13" s="5">
+        <v>133</v>
+      </c>
+      <c r="W13" s="5">
+        <v>57</v>
+      </c>
+      <c r="X13" s="5">
+        <v>84</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>81</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>78</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>113</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>161</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>164</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>136</v>
+      </c>
+      <c r="AE13" s="5">
+        <v>93</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>73</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>3.45</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>5.4</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>24.45</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>16.3</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>24.95</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>19.649999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C14">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="D14">
+        <v>183.5</v>
+      </c>
+      <c r="E14">
+        <v>40.923909999999999</v>
+      </c>
+      <c r="F14" s="4">
+        <v>5.2604157542642236</v>
+      </c>
+      <c r="G14" s="4">
+        <v>4.445627121797477</v>
+      </c>
+      <c r="H14" s="4">
+        <v>10.429498992767176</v>
+      </c>
+      <c r="I14" s="4">
+        <v>12.047744124233997</v>
+      </c>
+      <c r="J14" s="4">
+        <v>17.760875731807261</v>
+      </c>
+      <c r="K14" s="4">
+        <v>21.163586301517249</v>
+      </c>
+      <c r="L14" s="4">
+        <v>23.579720026705925</v>
+      </c>
+      <c r="M14" s="4">
+        <v>35.806976105580091</v>
+      </c>
+      <c r="N14" s="4">
+        <v>9.4981127743931388</v>
+      </c>
+      <c r="O14" s="5">
+        <v>23</v>
+      </c>
+      <c r="P14" s="5">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>25</v>
+      </c>
+      <c r="R14" s="5">
+        <v>75</v>
+      </c>
+      <c r="S14" s="5">
+        <v>192</v>
+      </c>
+      <c r="T14" s="5">
+        <v>176</v>
+      </c>
+      <c r="U14" s="5">
+        <v>110</v>
+      </c>
+      <c r="V14" s="5">
+        <v>208</v>
+      </c>
+      <c r="W14" s="5">
+        <v>31</v>
+      </c>
+      <c r="X14" s="5">
+        <v>98</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>91</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>90</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>98</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>148</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>117</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>85</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>111</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>59</v>
+      </c>
+      <c r="AG14" s="12">
+        <v>4</v>
+      </c>
+      <c r="AH14" s="12">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AI14" s="12">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="AJ14" s="12">
+        <v>7.4</v>
+      </c>
+      <c r="AK14" s="12">
+        <v>14.85</v>
+      </c>
+      <c r="AL14" s="12">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AM14" s="12">
+        <v>15</v>
+      </c>
+      <c r="AN14" s="12">
+        <v>12.5</v>
+      </c>
+      <c r="AO14" s="12">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C15">
+        <v>109.55</v>
+      </c>
+      <c r="D15">
+        <v>162.56</v>
+      </c>
+      <c r="E15">
+        <v>41.455770000000001</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5.5657345686046673</v>
+      </c>
+      <c r="G15" s="7">
+        <v>7.735825520374755</v>
+      </c>
+      <c r="H15" s="6">
+        <v>8.2083411579719794</v>
+      </c>
+      <c r="I15" s="6">
+        <v>46.98056049215424</v>
+      </c>
+      <c r="J15" s="6">
+        <v>66.120320269129309</v>
+      </c>
+      <c r="K15" s="7">
+        <v>60.51373871411802</v>
+      </c>
+      <c r="L15" s="8">
+        <v>45.093453576265759</v>
+      </c>
+      <c r="M15" s="8">
+        <v>21.518181908734675</v>
+      </c>
+      <c r="N15" s="7">
+        <v>18.252587619530058</v>
+      </c>
+      <c r="O15" s="5">
+        <v>16</v>
+      </c>
+      <c r="P15" s="5">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>15</v>
+      </c>
+      <c r="R15" s="5">
+        <v>110</v>
+      </c>
+      <c r="S15" s="5">
+        <v>183</v>
+      </c>
+      <c r="T15" s="5">
+        <v>169</v>
+      </c>
+      <c r="U15" s="5">
+        <v>206</v>
+      </c>
+      <c r="V15" s="5">
+        <v>61</v>
+      </c>
+      <c r="W15" s="5">
+        <v>17</v>
+      </c>
+      <c r="X15" s="5">
+        <v>107</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>105</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>105</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>268</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>247</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>218</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>192</v>
+      </c>
+      <c r="AE15" s="5">
+        <v>96</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>49</v>
+      </c>
+      <c r="AG15" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="AH15" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="AI15" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="AJ15" s="11">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AK15" s="11">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AL15" s="11">
+        <v>19.3</v>
+      </c>
+      <c r="AM15" s="11">
+        <v>22.6</v>
+      </c>
+      <c r="AN15" s="11">
+        <v>15.7</v>
+      </c>
+      <c r="AO15" s="11">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C16">
+        <v>131.1</v>
+      </c>
+      <c r="D16">
+        <v>177.5</v>
+      </c>
+      <c r="E16">
+        <v>41.610790000000001</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.31084995648693997</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.99155978340406015</v>
+      </c>
+      <c r="H16" s="6">
+        <v>7.1787848772640821</v>
+      </c>
+      <c r="I16" s="6">
+        <v>5.7791972609398732</v>
+      </c>
+      <c r="J16" s="6">
+        <v>7.2786588228140197</v>
+      </c>
+      <c r="K16" s="7">
+        <v>30.49</v>
+      </c>
+      <c r="L16" s="8">
+        <v>3.3804710724782625</v>
+      </c>
+      <c r="M16" s="8">
+        <v>2.3839094100281994</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3.8045311599846174</v>
+      </c>
+      <c r="O16" s="5">
+        <v>14</v>
+      </c>
+      <c r="P16" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>18</v>
+      </c>
+      <c r="R16" s="5">
+        <v>56</v>
+      </c>
+      <c r="S16" s="5">
+        <v>59</v>
+      </c>
+      <c r="T16" s="5">
+        <v>88</v>
+      </c>
+      <c r="U16" s="5">
+        <v>65</v>
+      </c>
+      <c r="V16" s="5">
+        <v>32</v>
+      </c>
+      <c r="W16" s="5">
+        <v>15</v>
+      </c>
+      <c r="X16" s="5">
+        <v>87</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>83</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>78</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>118</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>130</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>124</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>92</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>79</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>66</v>
+      </c>
+      <c r="AG16" s="11">
+        <v>3.56</v>
+      </c>
+      <c r="AH16" s="11">
+        <v>3.71</v>
+      </c>
+      <c r="AI16" s="11">
+        <v>4.57</v>
+      </c>
+      <c r="AJ16" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="AK16" s="11">
+        <v>21.2</v>
+      </c>
+      <c r="AL16" s="11">
+        <v>19.2</v>
+      </c>
+      <c r="AM16" s="11">
+        <v>23.6</v>
+      </c>
+      <c r="AN16" s="11">
+        <v>8.1</v>
+      </c>
+      <c r="AO16" s="11">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C17">
+        <v>102.8</v>
+      </c>
+      <c r="D17">
+        <v>154.30000000000001</v>
+      </c>
+      <c r="E17">
+        <v>43.177880000000002</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3.5978170709519404</v>
+      </c>
+      <c r="G17" s="7">
+        <v>3.5600959935543086</v>
+      </c>
+      <c r="H17" s="6">
+        <v>6.2174518773306877</v>
+      </c>
+      <c r="I17" s="6">
+        <v>8.2413733975926995</v>
+      </c>
+      <c r="J17" s="6">
+        <v>7.692980983852288</v>
+      </c>
+      <c r="K17" s="7">
+        <v>16.544500504852557</v>
+      </c>
+      <c r="L17" s="8">
+        <v>16.227476944432407</v>
+      </c>
+      <c r="M17" s="7">
+        <v>13.067807034246073</v>
+      </c>
+      <c r="N17" s="7">
+        <v>10.273334841828435</v>
+      </c>
+      <c r="O17" s="5">
+        <v>24</v>
+      </c>
+      <c r="P17" s="5">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>26</v>
+      </c>
+      <c r="R17" s="5">
+        <v>54</v>
+      </c>
+      <c r="S17" s="5">
+        <v>180</v>
+      </c>
+      <c r="T17" s="5">
+        <v>385</v>
+      </c>
+      <c r="U17" s="5">
+        <v>490</v>
+      </c>
+      <c r="V17" s="5">
+        <v>389</v>
+      </c>
+      <c r="W17" s="5">
+        <v>161</v>
+      </c>
+      <c r="X17" s="5">
+        <v>74</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>77</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>71</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>92</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>126</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>145</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>136</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>92</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>73</v>
+      </c>
+      <c r="AG17" s="12">
+        <v>3.35</v>
+      </c>
+      <c r="AH17" s="12">
+        <v>6.7</v>
+      </c>
+      <c r="AI17" s="12">
+        <v>5.05</v>
+      </c>
+      <c r="AJ17" s="12">
+        <v>6.7</v>
+      </c>
+      <c r="AK17" s="12">
+        <v>24.6</v>
+      </c>
+      <c r="AL17" s="12">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="AM17" s="12">
+        <v>40</v>
+      </c>
+      <c r="AN17" s="12">
+        <v>39.35</v>
+      </c>
+      <c r="AO17" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C18">
+        <v>114.7</v>
+      </c>
+      <c r="D18">
+        <v>160.4</v>
+      </c>
+      <c r="E18">
+        <v>44.581499999999998</v>
+      </c>
+      <c r="F18" s="4">
+        <v>7.7393346600276205</v>
+      </c>
+      <c r="G18" s="4">
+        <v>7.9268856197927597</v>
+      </c>
+      <c r="H18" s="4">
+        <v>7.2245621122260406</v>
+      </c>
+      <c r="I18" s="4">
+        <v>34.179024345815819</v>
+      </c>
+      <c r="J18" s="4">
+        <v>44.62071394228002</v>
+      </c>
+      <c r="K18" s="4">
+        <v>41.844745252466666</v>
+      </c>
+      <c r="L18" s="4">
+        <v>36.845542611312453</v>
+      </c>
+      <c r="M18" s="4">
+        <v>19.633136761838891</v>
+      </c>
+      <c r="N18" s="4">
+        <v>17.723822551401884</v>
+      </c>
+      <c r="O18" s="5">
+        <v>28</v>
+      </c>
+      <c r="P18" s="5">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>18</v>
+      </c>
+      <c r="R18" s="5">
+        <v>62</v>
+      </c>
+      <c r="S18" s="5">
+        <v>161</v>
+      </c>
+      <c r="T18" s="5">
+        <v>151</v>
+      </c>
+      <c r="U18" s="5">
+        <v>135</v>
+      </c>
+      <c r="V18" s="5">
+        <v>82</v>
+      </c>
+      <c r="W18" s="5">
+        <v>49</v>
+      </c>
+      <c r="X18" s="5">
+        <v>97</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>84</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>89</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>131</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>169</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>137</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>147</v>
+      </c>
+      <c r="AE18" s="5">
+        <v>113</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>91</v>
+      </c>
+      <c r="AG18" s="12">
+        <v>6.55</v>
+      </c>
+      <c r="AH18" s="12">
+        <v>3.7</v>
+      </c>
+      <c r="AI18" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="AJ18" s="12">
+        <v>9.15</v>
+      </c>
+      <c r="AK18" s="12">
+        <v>14.2</v>
+      </c>
+      <c r="AL18" s="12">
+        <v>26.25</v>
+      </c>
+      <c r="AM18" s="12">
+        <v>13.65</v>
+      </c>
+      <c r="AN18" s="12">
+        <v>12.05</v>
+      </c>
+      <c r="AO18" s="12">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C19">
+        <v>126.9</v>
+      </c>
+      <c r="D19">
+        <v>167.7</v>
+      </c>
+      <c r="E19">
+        <v>45.122750000000003</v>
+      </c>
+      <c r="F19" s="4">
+        <v>10.649681793138859</v>
+      </c>
+      <c r="G19" s="4">
+        <v>9.0500950386267967</v>
+      </c>
+      <c r="H19" s="4">
+        <v>14.746614136123675</v>
+      </c>
+      <c r="I19" s="4">
+        <v>33.433948531593998</v>
+      </c>
+      <c r="J19" s="4">
+        <v>42.06361881442389</v>
+      </c>
+      <c r="K19" s="4">
+        <v>48.289123515974673</v>
+      </c>
+      <c r="L19" s="4">
+        <v>32.12840281975943</v>
+      </c>
+      <c r="M19" s="4">
+        <v>27.091815981724594</v>
+      </c>
+      <c r="N19" s="4">
+        <v>21.541088283904067</v>
+      </c>
+      <c r="O19" s="5">
+        <v>34</v>
+      </c>
+      <c r="P19" s="5">
+        <v>44</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>37</v>
+      </c>
+      <c r="R19" s="5">
+        <v>85</v>
+      </c>
+      <c r="S19" s="5">
+        <v>82</v>
+      </c>
+      <c r="T19" s="5">
+        <v>119</v>
+      </c>
+      <c r="U19" s="5">
+        <v>153</v>
+      </c>
+      <c r="V19" s="5">
+        <v>135</v>
+      </c>
+      <c r="W19" s="5">
+        <v>144</v>
+      </c>
+      <c r="X19" s="5">
+        <v>108</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>108</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>107</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>122</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>120</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>165</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>128</v>
+      </c>
+      <c r="AE19" s="5">
+        <v>94</v>
+      </c>
+      <c r="AF19" s="5">
+        <v>108</v>
+      </c>
+      <c r="AG19" s="11">
+        <v>6.7</v>
+      </c>
+      <c r="AH19" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="AI19" s="11">
+        <v>7.9</v>
+      </c>
+      <c r="AJ19" s="11">
+        <v>11.9</v>
+      </c>
+      <c r="AK19" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="AL19" s="11">
+        <v>20.2</v>
+      </c>
+      <c r="AM19" s="11">
+        <v>26.4</v>
+      </c>
+      <c r="AN19" s="11">
+        <v>19</v>
+      </c>
+      <c r="AO19" s="11">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="16">
+        <f>AVERAGE(C2:C19)</f>
+        <v>96.452222222222218</v>
+      </c>
+      <c r="D20" s="16">
+        <f t="shared" ref="D20:AN20" si="0">AVERAGE(D2:D19)</f>
+        <v>163.70333333333332</v>
+      </c>
+      <c r="E20" s="16">
+        <f t="shared" si="0"/>
+        <v>35.745924444444448</v>
+      </c>
+      <c r="F20" s="16">
+        <f t="shared" si="0"/>
+        <v>8.6710592588555233</v>
+      </c>
+      <c r="G20" s="16">
+        <f t="shared" si="0"/>
+        <v>8.9622867629062366</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" si="0"/>
+        <v>10.86891429609619</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" si="0"/>
+        <v>18.42953759259326</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" si="0"/>
+        <v>26.433528684671007</v>
+      </c>
+      <c r="K20" s="16">
+        <f t="shared" si="0"/>
+        <v>30.493643477383937</v>
+      </c>
+      <c r="L20" s="16">
+        <f t="shared" si="0"/>
+        <v>26.927388627143824</v>
+      </c>
+      <c r="M20" s="16">
+        <f t="shared" si="0"/>
+        <v>21.519287929922911</v>
+      </c>
+      <c r="N20" s="16">
+        <f t="shared" si="0"/>
+        <v>17.124580462442399</v>
+      </c>
+      <c r="O20" s="16">
+        <f t="shared" si="0"/>
+        <v>18.12777777777778</v>
+      </c>
+      <c r="P20" s="16">
+        <f t="shared" si="0"/>
+        <v>17.588333333333335</v>
+      </c>
+      <c r="Q20" s="16">
+        <f t="shared" si="0"/>
+        <v>16.893888888888892</v>
+      </c>
+      <c r="R20" s="16">
+        <f t="shared" si="0"/>
+        <v>61.361111111111114</v>
+      </c>
+      <c r="S20" s="16">
+        <f t="shared" si="0"/>
+        <v>118.52944444444444</v>
+      </c>
+      <c r="T20" s="16">
+        <f t="shared" si="0"/>
+        <v>157.12777777777779</v>
+      </c>
+      <c r="U20" s="16">
+        <f t="shared" si="0"/>
+        <v>151.61666666666667</v>
+      </c>
+      <c r="V20" s="16">
+        <f t="shared" si="0"/>
+        <v>114.13555555555556</v>
+      </c>
+      <c r="W20" s="16">
+        <f t="shared" si="0"/>
+        <v>54.461111111111109</v>
+      </c>
+      <c r="X20" s="16">
+        <f t="shared" si="0"/>
+        <v>83.166666666666671</v>
+      </c>
+      <c r="Y20" s="16">
+        <f t="shared" si="0"/>
+        <v>81.444444444444443</v>
+      </c>
+      <c r="Z20" s="16">
+        <f t="shared" si="0"/>
+        <v>82.75</v>
+      </c>
+      <c r="AA20" s="16">
+        <f t="shared" si="0"/>
+        <v>114.11111111111111</v>
+      </c>
+      <c r="AB20" s="16">
+        <f t="shared" si="0"/>
+        <v>150.88222222222223</v>
+      </c>
+      <c r="AC20" s="16">
+        <f t="shared" si="0"/>
+        <v>153.88888888888889</v>
+      </c>
+      <c r="AD20" s="16">
+        <f t="shared" si="0"/>
+        <v>140.11111111111111</v>
+      </c>
+      <c r="AE20" s="16">
+        <f t="shared" si="0"/>
+        <v>104.70611111111111</v>
+      </c>
+      <c r="AF20" s="16">
+        <f t="shared" si="0"/>
+        <v>73.055555555555557</v>
+      </c>
+      <c r="AG20" s="16">
+        <f t="shared" si="0"/>
+        <v>4.7055555555555548</v>
+      </c>
+      <c r="AH20" s="16">
+        <f t="shared" si="0"/>
+        <v>4.3438888888888885</v>
+      </c>
+      <c r="AI20" s="16">
+        <f t="shared" si="0"/>
+        <v>4.1438888888888892</v>
+      </c>
+      <c r="AJ20" s="16">
+        <f t="shared" si="0"/>
+        <v>8.443888888888889</v>
+      </c>
+      <c r="AK20" s="16">
+        <f t="shared" si="0"/>
+        <v>15.526666666666664</v>
+      </c>
+      <c r="AL20" s="16">
+        <f t="shared" si="0"/>
+        <v>19.805555555555557</v>
+      </c>
+      <c r="AM20" s="16">
+        <f t="shared" si="0"/>
+        <v>19.694444444444443</v>
+      </c>
+      <c r="AN20" s="16">
+        <f t="shared" si="0"/>
+        <v>16.547222222222224</v>
+      </c>
+      <c r="AO20" s="16">
+        <f t="shared" ref="AO20" si="1">AVERAGE(AO2:AO19)</f>
+        <v>13.601111111111114</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:BP19">
+    <sortCondition ref="E1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO7"/>
+  <sheetViews>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AF19" sqref="AF19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>73.8</v>
+      </c>
+      <c r="D2">
+        <v>163.6</v>
+      </c>
+      <c r="E2">
+        <v>27.573360000000001</v>
+      </c>
+      <c r="F2" s="4">
+        <v>26.868917266466415</v>
+      </c>
+      <c r="G2" s="4">
+        <v>18.54837887283497</v>
+      </c>
+      <c r="H2" s="4">
+        <v>18.703988879663424</v>
+      </c>
+      <c r="I2" s="4">
+        <v>19.150166558348495</v>
+      </c>
+      <c r="J2" s="4">
+        <v>19.752467622942053</v>
+      </c>
+      <c r="K2" s="4">
+        <v>22.993036572730819</v>
+      </c>
+      <c r="L2" s="4">
+        <v>17.960801095947616</v>
+      </c>
+      <c r="M2" s="4">
+        <v>14.850445987540352</v>
+      </c>
+      <c r="N2" s="4">
+        <v>11.395403610512176</v>
+      </c>
+      <c r="O2" s="5">
+        <v>19</v>
+      </c>
+      <c r="P2" s="5">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>14</v>
+      </c>
+      <c r="R2" s="5">
+        <v>39</v>
+      </c>
+      <c r="S2" s="5">
+        <v>43</v>
+      </c>
+      <c r="T2" s="5">
+        <v>53</v>
+      </c>
+      <c r="U2" s="5">
+        <v>51</v>
+      </c>
+      <c r="V2" s="5">
+        <v>56</v>
+      </c>
+      <c r="W2" s="5">
+        <v>33</v>
+      </c>
+      <c r="X2" s="5">
+        <v>84</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>87</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>84</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>148</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>194</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>207</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>210</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>179</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>120</v>
+      </c>
+      <c r="AG2" s="11">
+        <v>3.97</v>
+      </c>
+      <c r="AH2" s="11">
+        <v>4.88</v>
+      </c>
+      <c r="AI2" s="11">
+        <v>4.51</v>
+      </c>
+      <c r="AJ2" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="AK2" s="11">
+        <v>9.6</v>
+      </c>
+      <c r="AL2" s="11">
+        <v>11.7</v>
+      </c>
+      <c r="AM2" s="11">
+        <v>12.2</v>
+      </c>
+      <c r="AN2" s="11">
+        <v>13.2</v>
+      </c>
+      <c r="AO2" s="11">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>90</v>
+      </c>
+      <c r="D3">
+        <v>163</v>
+      </c>
+      <c r="E3">
+        <v>33.874070000000003</v>
+      </c>
+      <c r="F3" s="4">
+        <v>6.3489108368707701</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5.0162046612271043</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4.3563116838364522</v>
+      </c>
+      <c r="I3" s="4">
+        <v>30.227261270351711</v>
+      </c>
+      <c r="J3" s="4">
+        <v>58.016443309734399</v>
+      </c>
+      <c r="K3" s="4">
+        <v>47.495510867965329</v>
+      </c>
+      <c r="L3" s="4">
+        <v>47.227990622959908</v>
+      </c>
+      <c r="M3" s="4">
+        <v>32.743163056580158</v>
+      </c>
+      <c r="N3" s="4">
+        <v>25.680348716376837</v>
+      </c>
+      <c r="O3" s="5">
+        <v>41</v>
+      </c>
+      <c r="P3" s="5">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>35</v>
+      </c>
+      <c r="R3" s="5">
+        <v>107</v>
+      </c>
+      <c r="S3" s="5">
+        <v>184</v>
+      </c>
+      <c r="T3" s="5">
+        <v>108</v>
+      </c>
+      <c r="U3" s="5">
+        <v>113</v>
+      </c>
+      <c r="V3" s="5">
+        <v>147</v>
+      </c>
+      <c r="W3" s="5">
+        <v>77</v>
+      </c>
+      <c r="X3" s="5">
+        <v>118</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>120</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>113</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>158</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>212</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>193</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>186</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>116</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>67</v>
+      </c>
+      <c r="AG3" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="AH3" s="11">
+        <v>6.8</v>
+      </c>
+      <c r="AI3" s="11">
+        <v>6.4</v>
+      </c>
+      <c r="AJ3" s="11">
+        <v>10.7</v>
+      </c>
+      <c r="AK3" s="11">
+        <v>13.7</v>
+      </c>
+      <c r="AL3" s="11">
+        <v>21.6</v>
+      </c>
+      <c r="AM3" s="11">
+        <v>23.2</v>
+      </c>
+      <c r="AN3" s="11">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AO3" s="11">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>82.5</v>
+      </c>
+      <c r="D4">
+        <v>157</v>
+      </c>
+      <c r="E4">
+        <v>33.469920000000002</v>
+      </c>
+      <c r="F4" s="4">
+        <v>37.857937777424617</v>
+      </c>
+      <c r="G4" s="4">
+        <v>33.05225028195138</v>
+      </c>
+      <c r="H4" s="4">
+        <v>26.690825615946132</v>
+      </c>
+      <c r="I4" s="4">
+        <v>44.430422193075287</v>
+      </c>
+      <c r="J4" s="4">
+        <v>94.341858759653817</v>
+      </c>
+      <c r="K4" s="4">
+        <v>121.22089589422291</v>
+      </c>
+      <c r="L4" s="4">
+        <v>113.5146593734986</v>
+      </c>
+      <c r="M4" s="4">
+        <v>72.485305857168186</v>
+      </c>
+      <c r="N4" s="4">
+        <v>40.737227072631093</v>
+      </c>
+      <c r="O4" s="5">
+        <v>30</v>
+      </c>
+      <c r="P4" s="5">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>30</v>
+      </c>
+      <c r="R4" s="5">
+        <v>67</v>
+      </c>
+      <c r="S4" s="5">
+        <v>162</v>
+      </c>
+      <c r="T4" s="5">
+        <v>127</v>
+      </c>
+      <c r="U4" s="5">
+        <v>177</v>
+      </c>
+      <c r="V4" s="5">
+        <v>130</v>
+      </c>
+      <c r="W4" s="5">
+        <v>96</v>
+      </c>
+      <c r="X4" s="5">
+        <v>111</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>101</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>100</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>159</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>234</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>248</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>231</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>110</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>82</v>
+      </c>
+      <c r="AG4" s="11">
+        <v>7.3</v>
+      </c>
+      <c r="AH4" s="11">
+        <v>5.2</v>
+      </c>
+      <c r="AI4" s="11">
+        <v>6.2</v>
+      </c>
+      <c r="AJ4" s="11">
+        <v>8.1</v>
+      </c>
+      <c r="AK4" s="11">
+        <v>14.2</v>
+      </c>
+      <c r="AL4" s="11">
+        <v>14.6</v>
+      </c>
+      <c r="AM4" s="11">
+        <v>31.5</v>
+      </c>
+      <c r="AN4" s="11">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AO4" s="14">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>89.5</v>
+      </c>
+      <c r="D5">
+        <v>160</v>
+      </c>
+      <c r="E5">
+        <v>34.960940000000001</v>
+      </c>
+      <c r="F5" s="4">
+        <v>51.126716445571986</v>
+      </c>
+      <c r="G5" s="4">
+        <v>45.216144389634124</v>
+      </c>
+      <c r="H5" s="4">
+        <v>59.69531915292373</v>
+      </c>
+      <c r="I5" s="4">
+        <v>87.407927756847869</v>
+      </c>
+      <c r="J5" s="4">
+        <v>78.860475375941533</v>
+      </c>
+      <c r="K5" s="4">
+        <v>74.686485970065917</v>
+      </c>
+      <c r="L5" s="4">
+        <v>71.532512902044289</v>
+      </c>
+      <c r="M5" s="4">
+        <v>69.782503979564126</v>
+      </c>
+      <c r="N5" s="4">
+        <v>57.178978929914493</v>
+      </c>
+      <c r="O5" s="5">
+        <v>43</v>
+      </c>
+      <c r="P5" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>31</v>
+      </c>
+      <c r="R5" s="5">
+        <v>185</v>
+      </c>
+      <c r="S5" s="5">
+        <v>116.25</v>
+      </c>
+      <c r="T5" s="5">
+        <v>237</v>
+      </c>
+      <c r="U5" s="5">
+        <v>96</v>
+      </c>
+      <c r="V5" s="5">
+        <v>199</v>
+      </c>
+      <c r="W5" s="5">
+        <v>183</v>
+      </c>
+      <c r="X5" s="5">
+        <v>74</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>74</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>70</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>145</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>197.5</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>108</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>92</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>95</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>80</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>12.9</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>11.3</v>
+      </c>
+      <c r="AI5" s="11">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AJ5" s="11">
+        <v>23.2</v>
+      </c>
+      <c r="AK5" s="11">
+        <v>12.24</v>
+      </c>
+      <c r="AL5" s="11">
+        <v>22.3</v>
+      </c>
+      <c r="AM5" s="11">
+        <v>13.9</v>
+      </c>
+      <c r="AN5" s="11">
+        <v>27</v>
+      </c>
+      <c r="AO5" s="11">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>101.9</v>
+      </c>
+      <c r="D6">
+        <v>167.2</v>
+      </c>
+      <c r="E6">
+        <v>36.45035</v>
+      </c>
+      <c r="F6" s="4">
+        <v>25.415868082079008</v>
+      </c>
+      <c r="G6" s="4">
+        <v>36.998245805396635</v>
+      </c>
+      <c r="H6" s="4">
+        <v>36.620862845933416</v>
+      </c>
+      <c r="I6" s="4">
+        <v>55.427926239328983</v>
+      </c>
+      <c r="J6" s="4">
+        <v>72.612403987268308</v>
+      </c>
+      <c r="K6" s="4">
+        <v>70.195736613518307</v>
+      </c>
+      <c r="L6" s="4">
+        <v>63.749326307575345</v>
+      </c>
+      <c r="M6" s="4">
+        <v>47.970262503305861</v>
+      </c>
+      <c r="N6" s="4">
+        <v>42.737812367088537</v>
+      </c>
+      <c r="O6" s="5">
+        <v>11</v>
+      </c>
+      <c r="P6" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>9</v>
+      </c>
+      <c r="R6" s="5">
+        <v>25</v>
+      </c>
+      <c r="S6" s="5">
+        <v>76</v>
+      </c>
+      <c r="T6" s="5">
+        <v>65</v>
+      </c>
+      <c r="U6" s="5">
+        <v>154</v>
+      </c>
+      <c r="V6" s="5">
+        <v>80</v>
+      </c>
+      <c r="W6" s="5">
+        <v>39</v>
+      </c>
+      <c r="X6" s="5">
+        <v>81</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>76</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>72</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>91</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>150</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>165</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>156</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>121</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>65</v>
+      </c>
+      <c r="AG6" s="12">
+        <v>5.25</v>
+      </c>
+      <c r="AH6" s="12">
+        <v>3.85</v>
+      </c>
+      <c r="AI6" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="AJ6" s="12">
+        <v>6.4</v>
+      </c>
+      <c r="AK6" s="12">
+        <v>11.45</v>
+      </c>
+      <c r="AL6" s="12">
+        <v>32.65</v>
+      </c>
+      <c r="AM6" s="12">
+        <v>29.9</v>
+      </c>
+      <c r="AN6" s="12">
+        <v>30</v>
+      </c>
+      <c r="AO6" s="12">
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="16">
+        <f>AVERAGE(C2:C6)</f>
+        <v>87.54</v>
+      </c>
+      <c r="D7" s="16">
+        <f>AVERAGE(D2:D6)</f>
+        <v>162.16</v>
+      </c>
+      <c r="E7" s="16">
+        <f>AVERAGE(E2:E6)</f>
+        <v>33.265728000000003</v>
+      </c>
+      <c r="F7" s="16">
+        <f>AVERAGE(F2:F6)</f>
+        <v>29.52367008168256</v>
+      </c>
+      <c r="G7" s="16">
+        <f>AVERAGE(G2:G6)</f>
+        <v>27.766244802208842</v>
+      </c>
+      <c r="H7" s="16">
+        <f>AVERAGE(H2:H6)</f>
+        <v>29.213461635660632</v>
+      </c>
+      <c r="I7" s="16">
+        <f>AVERAGE(I2:I6)</f>
+        <v>47.32874080359047</v>
+      </c>
+      <c r="J7" s="16">
+        <f>AVERAGE(J2:J6)</f>
+        <v>64.716729811108024</v>
+      </c>
+      <c r="K7" s="16">
+        <f>AVERAGE(K2:K6)</f>
+        <v>67.318333183700659</v>
+      </c>
+      <c r="L7" s="16">
+        <f>AVERAGE(L2:L6)</f>
+        <v>62.797058060405149</v>
+      </c>
+      <c r="M7" s="16">
+        <f>AVERAGE(M2:M6)</f>
+        <v>47.566336276831734</v>
+      </c>
+      <c r="N7" s="16">
+        <f>AVERAGE(N2:N6)</f>
+        <v>35.545954139304634</v>
+      </c>
+      <c r="O7" s="16">
+        <f>AVERAGE(O2:O6)</f>
+        <v>28.8</v>
+      </c>
+      <c r="P7" s="16">
+        <f>AVERAGE(P2:P6)</f>
+        <v>26.8</v>
+      </c>
+      <c r="Q7" s="16">
+        <f>AVERAGE(Q2:Q6)</f>
+        <v>23.8</v>
+      </c>
+      <c r="R7" s="16">
+        <f>AVERAGE(R2:R6)</f>
+        <v>84.6</v>
+      </c>
+      <c r="S7" s="16">
+        <f>AVERAGE(S2:S6)</f>
+        <v>116.25</v>
+      </c>
+      <c r="T7" s="16">
+        <f>AVERAGE(T2:T6)</f>
+        <v>118</v>
+      </c>
+      <c r="U7" s="16">
+        <f>AVERAGE(U2:U6)</f>
+        <v>118.2</v>
+      </c>
+      <c r="V7" s="16">
+        <f>AVERAGE(V2:V6)</f>
+        <v>122.4</v>
+      </c>
+      <c r="W7" s="16">
+        <f>AVERAGE(W2:W6)</f>
+        <v>85.6</v>
+      </c>
+      <c r="X7" s="16">
+        <f>AVERAGE(X2:X6)</f>
+        <v>93.6</v>
+      </c>
+      <c r="Y7" s="16">
+        <f>AVERAGE(Y2:Y6)</f>
+        <v>91.6</v>
+      </c>
+      <c r="Z7" s="16">
+        <f>AVERAGE(Z2:Z6)</f>
+        <v>87.8</v>
+      </c>
+      <c r="AA7" s="16">
+        <f>AVERAGE(AA2:AA6)</f>
+        <v>140.19999999999999</v>
+      </c>
+      <c r="AB7" s="16">
+        <f>AVERAGE(AB2:AB6)</f>
+        <v>197.5</v>
+      </c>
+      <c r="AC7" s="16">
+        <f>AVERAGE(AC2:AC6)</f>
+        <v>184.2</v>
+      </c>
+      <c r="AD7" s="16">
+        <f>AVERAGE(AD2:AD6)</f>
+        <v>175</v>
+      </c>
+      <c r="AE7" s="16">
+        <f>AVERAGE(AE2:AE6)</f>
+        <v>124.2</v>
+      </c>
+      <c r="AF7" s="16">
+        <f>AVERAGE(AF2:AF6)</f>
+        <v>82.8</v>
+      </c>
+      <c r="AG7" s="16">
+        <f>AVERAGE(AG2:AG6)</f>
+        <v>7.0640000000000001</v>
+      </c>
+      <c r="AH7" s="16">
+        <f>AVERAGE(AH2:AH6)</f>
+        <v>6.4060000000000006</v>
+      </c>
+      <c r="AI7" s="16">
+        <f>AVERAGE(AI2:AI6)</f>
+        <v>5.8620000000000001</v>
+      </c>
+      <c r="AJ7" s="16">
+        <f>AVERAGE(AJ2:AJ6)</f>
+        <v>10.621999999999998</v>
+      </c>
+      <c r="AK7" s="16">
+        <f>AVERAGE(AK2:AK6)</f>
+        <v>12.238</v>
+      </c>
+      <c r="AL7" s="16">
+        <f>AVERAGE(AL2:AL6)</f>
+        <v>20.57</v>
+      </c>
+      <c r="AM7" s="16">
+        <f>AVERAGE(AM2:AM6)</f>
+        <v>22.140000000000004</v>
+      </c>
+      <c r="AN7" s="16">
+        <f>AVERAGE(AN2:AN6)</f>
+        <v>21.139999999999997</v>
+      </c>
+      <c r="AO7" s="16">
+        <f t="shared" ref="AO7" si="0">AVERAGE(AO2:AO6)</f>
+        <v>14.790000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO6"/>
+  <sheetViews>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2:AO6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="C2">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="D2">
+        <v>154</v>
+      </c>
+      <c r="E2">
+        <v>33.690339999999999</v>
+      </c>
+      <c r="F2" s="4">
+        <v>49.367789270302339</v>
+      </c>
+      <c r="G2" s="4">
+        <v>47.90731823879468</v>
+      </c>
+      <c r="H2" s="4">
+        <v>49.773276822876404</v>
+      </c>
+      <c r="I2" s="4">
+        <v>113.80981750323436</v>
+      </c>
+      <c r="J2" s="4">
+        <v>165.08522171126646</v>
+      </c>
+      <c r="K2" s="4">
+        <v>154.35632415379132</v>
+      </c>
+      <c r="L2" s="4">
+        <v>155.61668036988027</v>
+      </c>
+      <c r="M2" s="4">
+        <v>84.619332244669891</v>
+      </c>
+      <c r="N2" s="4">
+        <v>41.746326140194718</v>
+      </c>
+      <c r="O2" s="5">
+        <v>31</v>
+      </c>
+      <c r="P2" s="5">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>34</v>
+      </c>
+      <c r="R2" s="5">
+        <v>198</v>
+      </c>
+      <c r="S2" s="5">
+        <v>117</v>
+      </c>
+      <c r="T2" s="5">
+        <v>152</v>
+      </c>
+      <c r="U2" s="5">
+        <v>152</v>
+      </c>
+      <c r="V2" s="5">
+        <v>145</v>
+      </c>
+      <c r="W2" s="5">
+        <v>93</v>
+      </c>
+      <c r="X2" s="5">
+        <v>87</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>81</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>89</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>130</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>184</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>204</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>195</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>157</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>124</v>
+      </c>
+      <c r="AG2" s="11">
+        <v>4.45</v>
+      </c>
+      <c r="AH2" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AI2" s="11">
+        <v>4.79</v>
+      </c>
+      <c r="AJ2" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="AK2" s="11">
+        <v>13.9</v>
+      </c>
+      <c r="AL2" s="11">
+        <v>21.9</v>
+      </c>
+      <c r="AM2" s="11">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="AN2" s="11">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="AO2" s="11">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="C3">
+        <v>102.8</v>
+      </c>
+      <c r="D3">
+        <v>163.80000000000001</v>
+      </c>
+      <c r="E3">
+        <v>38.314689999999999</v>
+      </c>
+      <c r="F3" s="4">
+        <v>13.019549098416876</v>
+      </c>
+      <c r="G3" s="4">
+        <v>25.580130175265001</v>
+      </c>
+      <c r="H3" s="4">
+        <v>30.323815674713646</v>
+      </c>
+      <c r="I3" s="4">
+        <v>66.917528023490732</v>
+      </c>
+      <c r="J3" s="4">
+        <v>116.04765602065117</v>
+      </c>
+      <c r="K3" s="4">
+        <v>104.27144209193919</v>
+      </c>
+      <c r="L3" s="4">
+        <v>118.60779998886925</v>
+      </c>
+      <c r="M3" s="4">
+        <v>58.262981396378358</v>
+      </c>
+      <c r="N3" s="4">
+        <v>36.689172624173324</v>
+      </c>
+      <c r="O3" s="5">
+        <v>15</v>
+      </c>
+      <c r="P3" s="5">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>28</v>
+      </c>
+      <c r="R3" s="5">
+        <v>91</v>
+      </c>
+      <c r="S3" s="5">
+        <v>132</v>
+      </c>
+      <c r="T3" s="5">
+        <v>144</v>
+      </c>
+      <c r="U3" s="5">
+        <v>181</v>
+      </c>
+      <c r="V3" s="5">
+        <v>121</v>
+      </c>
+      <c r="W3" s="5">
+        <v>50</v>
+      </c>
+      <c r="X3" s="5">
+        <v>86</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>79</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>76</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>111</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>162</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>163</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>179</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>124</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>63</v>
+      </c>
+      <c r="AG3" s="12">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AH3" s="12">
+        <v>4.8</v>
+      </c>
+      <c r="AI3" s="12">
+        <v>4.3</v>
+      </c>
+      <c r="AJ3" s="12">
+        <v>11.4</v>
+      </c>
+      <c r="AK3" s="12">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="AL3" s="12">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="AM3" s="12">
+        <v>21.75</v>
+      </c>
+      <c r="AN3" s="12">
+        <v>21.05</v>
+      </c>
+      <c r="AO3" s="12">
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="C4">
+        <v>103.6</v>
+      </c>
+      <c r="D4">
+        <v>160.02000000000001</v>
+      </c>
+      <c r="E4">
+        <v>40.458629999999999</v>
+      </c>
+      <c r="F4" s="4">
+        <v>11.35</v>
+      </c>
+      <c r="G4" s="4">
+        <v>14.47</v>
+      </c>
+      <c r="H4" s="4">
+        <v>22.65</v>
+      </c>
+      <c r="I4" s="4">
+        <v>34.32</v>
+      </c>
+      <c r="J4" s="4">
+        <v>60.12</v>
+      </c>
+      <c r="K4" s="4">
+        <v>69.75</v>
+      </c>
+      <c r="L4" s="4">
+        <v>70.08</v>
+      </c>
+      <c r="M4" s="4">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="N4" s="4">
+        <v>56.46</v>
+      </c>
+      <c r="O4" s="5">
+        <v>24</v>
+      </c>
+      <c r="P4" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>28</v>
+      </c>
+      <c r="R4" s="5">
+        <v>41</v>
+      </c>
+      <c r="S4" s="5">
+        <v>65</v>
+      </c>
+      <c r="T4" s="5">
+        <v>77</v>
+      </c>
+      <c r="U4" s="5">
+        <v>97</v>
+      </c>
+      <c r="V4" s="5">
+        <v>80</v>
+      </c>
+      <c r="W4" s="5">
+        <v>62</v>
+      </c>
+      <c r="X4" s="5">
+        <v>78</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>69</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>84.33</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>100</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>143</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>158</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>172</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>140</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>96</v>
+      </c>
+      <c r="AG4" s="11">
+        <v>4.46</v>
+      </c>
+      <c r="AH4" s="11">
+        <v>3.9</v>
+      </c>
+      <c r="AI4" s="11">
+        <v>6.16</v>
+      </c>
+      <c r="AJ4" s="11">
+        <v>6.51</v>
+      </c>
+      <c r="AK4" s="11">
+        <v>8.19</v>
+      </c>
+      <c r="AL4" s="11">
+        <v>11.37</v>
+      </c>
+      <c r="AM4" s="11">
+        <v>12.03</v>
+      </c>
+      <c r="AN4" s="11">
+        <v>13.17</v>
+      </c>
+      <c r="AO4" s="11">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="C5">
+        <v>116.3</v>
+      </c>
+      <c r="D5">
+        <v>161.30000000000001</v>
+      </c>
+      <c r="E5">
+        <v>44.700360000000003</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5.0800076033341943</v>
+      </c>
+      <c r="G5" s="4">
+        <v>6.2681883116137751</v>
+      </c>
+      <c r="H5" s="4">
+        <v>7.4882679258480414</v>
+      </c>
+      <c r="I5" s="4">
+        <v>13.03475898893973</v>
+      </c>
+      <c r="J5" s="4">
+        <v>34.35613373056664</v>
+      </c>
+      <c r="K5" s="4">
+        <v>51.666509729861332</v>
+      </c>
+      <c r="L5" s="4">
+        <v>42.345155371378439</v>
+      </c>
+      <c r="M5" s="4">
+        <v>42.854020496047944</v>
+      </c>
+      <c r="N5" s="4">
+        <v>34.761531668086747</v>
+      </c>
+      <c r="O5" s="5">
+        <v>21</v>
+      </c>
+      <c r="P5" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>22</v>
+      </c>
+      <c r="R5" s="5">
+        <v>66</v>
+      </c>
+      <c r="S5" s="5">
+        <v>74</v>
+      </c>
+      <c r="T5" s="5">
+        <v>129</v>
+      </c>
+      <c r="U5" s="5">
+        <v>115</v>
+      </c>
+      <c r="V5" s="5">
+        <v>21</v>
+      </c>
+      <c r="W5" s="5">
+        <v>24</v>
+      </c>
+      <c r="X5" s="5">
+        <v>99</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>87</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>88</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>116</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>127</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>145</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>143</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>132</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>97</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>4.7</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="AI5" s="11">
+        <v>9.4</v>
+      </c>
+      <c r="AJ5" s="11">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AK5" s="11">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AL5" s="11">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AM5" s="11">
+        <v>14.7</v>
+      </c>
+      <c r="AN5" s="11">
+        <v>14.9</v>
+      </c>
+      <c r="AO5" s="11">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="16">
+        <f>AVERAGE(C2:C5)</f>
+        <v>100.64999999999999</v>
+      </c>
+      <c r="D6" s="16">
+        <f t="shared" ref="D6:AO6" si="0">AVERAGE(D2:D5)</f>
+        <v>159.78000000000003</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" si="0"/>
+        <v>39.291004999999998</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" si="0"/>
+        <v>19.704336493013351</v>
+      </c>
+      <c r="G6" s="16">
+        <f t="shared" si="0"/>
+        <v>23.556409181418363</v>
+      </c>
+      <c r="H6" s="16">
+        <f t="shared" si="0"/>
+        <v>27.55884010585952</v>
+      </c>
+      <c r="I6" s="16">
+        <f t="shared" si="0"/>
+        <v>57.020526128916202</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" si="0"/>
+        <v>93.902252865621065</v>
+      </c>
+      <c r="K6" s="16">
+        <f t="shared" si="0"/>
+        <v>95.011068993897965</v>
+      </c>
+      <c r="L6" s="16">
+        <f t="shared" si="0"/>
+        <v>96.662408932531989</v>
+      </c>
+      <c r="M6" s="16">
+        <f t="shared" si="0"/>
+        <v>55.196583534274055</v>
+      </c>
+      <c r="N6" s="16">
+        <f t="shared" si="0"/>
+        <v>42.414257608113701</v>
+      </c>
+      <c r="O6" s="16">
+        <f t="shared" si="0"/>
+        <v>22.75</v>
+      </c>
+      <c r="P6" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q6" s="16">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="R6" s="16">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="S6" s="16">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="T6" s="16">
+        <f t="shared" si="0"/>
+        <v>125.5</v>
+      </c>
+      <c r="U6" s="16">
+        <f t="shared" si="0"/>
+        <v>136.25</v>
+      </c>
+      <c r="V6" s="16">
+        <f t="shared" si="0"/>
+        <v>91.75</v>
+      </c>
+      <c r="W6" s="16">
+        <f t="shared" si="0"/>
+        <v>57.25</v>
+      </c>
+      <c r="X6" s="16">
+        <f t="shared" si="0"/>
+        <v>87.5</v>
+      </c>
+      <c r="Y6" s="16">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="Z6" s="16">
+        <f t="shared" si="0"/>
+        <v>84.332499999999996</v>
+      </c>
+      <c r="AA6" s="16">
+        <f t="shared" si="0"/>
+        <v>114.25</v>
+      </c>
+      <c r="AB6" s="16">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="AC6" s="16">
+        <f t="shared" si="0"/>
+        <v>167.5</v>
+      </c>
+      <c r="AD6" s="16">
+        <f t="shared" si="0"/>
+        <v>172.25</v>
+      </c>
+      <c r="AE6" s="16">
+        <f t="shared" si="0"/>
+        <v>138.25</v>
+      </c>
+      <c r="AF6" s="16">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="AG6" s="16">
+        <f t="shared" si="0"/>
+        <v>4.0149999999999997</v>
+      </c>
+      <c r="AH6" s="16">
+        <f t="shared" si="0"/>
+        <v>4.7750000000000004</v>
+      </c>
+      <c r="AI6" s="16">
+        <f t="shared" si="0"/>
+        <v>6.1624999999999996</v>
+      </c>
+      <c r="AJ6" s="16">
+        <f t="shared" si="0"/>
+        <v>10.002500000000001</v>
+      </c>
+      <c r="AK6" s="16">
+        <f t="shared" si="0"/>
+        <v>14.084999999999999</v>
+      </c>
+      <c r="AL6" s="16">
+        <f t="shared" si="0"/>
+        <v>16.504999999999999</v>
+      </c>
+      <c r="AM6" s="16">
+        <f t="shared" si="0"/>
+        <v>20.420000000000002</v>
+      </c>
+      <c r="AN6" s="16">
+        <f t="shared" si="0"/>
+        <v>20.705000000000002</v>
+      </c>
+      <c r="AO6" s="16">
+        <f t="shared" si="0"/>
+        <v>16.037499999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2:AO4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>122.02</v>
+      </c>
+      <c r="D2">
+        <v>180</v>
+      </c>
+      <c r="E2">
+        <v>37.660490000000003</v>
+      </c>
+      <c r="F2" s="4">
+        <v>41.018422522554509</v>
+      </c>
+      <c r="G2" s="4">
+        <v>43.8785407288307</v>
+      </c>
+      <c r="H2" s="4">
+        <v>39.928217489926766</v>
+      </c>
+      <c r="I2" s="4">
+        <v>52.567179741428248</v>
+      </c>
+      <c r="J2" s="4">
+        <v>62.619297644486231</v>
+      </c>
+      <c r="K2" s="4">
+        <v>71.392368152547178</v>
+      </c>
+      <c r="L2" s="4">
+        <v>78.240874766067108</v>
+      </c>
+      <c r="M2" s="4">
+        <v>54.232494140172776</v>
+      </c>
+      <c r="N2" s="4">
+        <v>44.337480619012254</v>
+      </c>
+      <c r="O2" s="5">
+        <v>36</v>
+      </c>
+      <c r="P2" s="5">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>42</v>
+      </c>
+      <c r="R2" s="5">
+        <v>64</v>
+      </c>
+      <c r="S2" s="5">
+        <v>78</v>
+      </c>
+      <c r="T2" s="5">
+        <v>19</v>
+      </c>
+      <c r="U2" s="5">
+        <v>112</v>
+      </c>
+      <c r="V2" s="5">
+        <v>139</v>
+      </c>
+      <c r="W2" s="5">
+        <v>30</v>
+      </c>
+      <c r="X2" s="5">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>66</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>60</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>88</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>118</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>152</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>153</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>152</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>98</v>
+      </c>
+      <c r="AG2" s="11">
+        <v>8.9</v>
+      </c>
+      <c r="AH2" s="11">
+        <v>8.6</v>
+      </c>
+      <c r="AI2" s="11">
+        <v>6</v>
+      </c>
+      <c r="AJ2" s="11">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AK2" s="11">
+        <v>12.2</v>
+      </c>
+      <c r="AL2" s="11">
+        <v>7.7</v>
+      </c>
+      <c r="AM2" s="11">
+        <v>15.5</v>
+      </c>
+      <c r="AN2" s="11">
+        <v>15.4</v>
+      </c>
+      <c r="AO2" s="11">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="D3">
+        <v>178.9</v>
+      </c>
+      <c r="E3">
+        <v>51.147930000000002</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5.8297755450221906</v>
+      </c>
+      <c r="G3" s="4">
+        <v>14.487239409096599</v>
+      </c>
+      <c r="H3" s="4">
+        <v>12.131981018378093</v>
+      </c>
+      <c r="I3" s="4">
+        <v>19.720045758983595</v>
+      </c>
+      <c r="J3" s="4">
+        <v>28.763264471322806</v>
+      </c>
+      <c r="K3" s="4">
+        <v>32.277294431608539</v>
+      </c>
+      <c r="L3" s="4">
+        <v>31.231508122829648</v>
+      </c>
+      <c r="M3" s="4">
+        <v>27.608931015639975</v>
+      </c>
+      <c r="N3" s="4">
+        <v>26.199496757026917</v>
+      </c>
+      <c r="O3" s="5">
+        <v>7</v>
+      </c>
+      <c r="P3" s="5">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>15</v>
+      </c>
+      <c r="R3" s="5">
+        <v>41</v>
+      </c>
+      <c r="S3" s="5">
+        <v>69</v>
+      </c>
+      <c r="T3" s="5">
+        <v>78</v>
+      </c>
+      <c r="U3" s="5">
+        <v>48</v>
+      </c>
+      <c r="V3" s="5">
+        <v>74</v>
+      </c>
+      <c r="W3" s="5">
+        <v>52</v>
+      </c>
+      <c r="X3" s="5">
+        <v>69</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>69</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>72</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>109</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>128</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>129</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>109</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>104</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>78</v>
+      </c>
+      <c r="AG3" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="AH3" s="11">
+        <v>3.2</v>
+      </c>
+      <c r="AI3" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="AJ3" s="11">
+        <v>5.2</v>
+      </c>
+      <c r="AK3" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AL3" s="11">
+        <v>9.1</v>
+      </c>
+      <c r="AM3" s="11">
+        <v>6.3</v>
+      </c>
+      <c r="AN3" s="11">
+        <v>11.7</v>
+      </c>
+      <c r="AO3" s="11">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="16">
+        <f>AVERAGE(C3:C3)</f>
+        <v>163.69999999999999</v>
+      </c>
+      <c r="D4" s="16">
+        <f>AVERAGE(D3:D3)</f>
+        <v>178.9</v>
+      </c>
+      <c r="E4" s="16">
+        <f>AVERAGE(E3:E3)</f>
+        <v>51.147930000000002</v>
+      </c>
+      <c r="F4" s="16">
+        <f>AVERAGE(F3:F3)</f>
+        <v>5.8297755450221906</v>
+      </c>
+      <c r="G4" s="16">
+        <f>AVERAGE(G3:G3)</f>
+        <v>14.487239409096599</v>
+      </c>
+      <c r="H4" s="16">
+        <f>AVERAGE(H3:H3)</f>
+        <v>12.131981018378093</v>
+      </c>
+      <c r="I4" s="16">
+        <f>AVERAGE(I3:I3)</f>
+        <v>19.720045758983595</v>
+      </c>
+      <c r="J4" s="16">
+        <f>AVERAGE(J3:J3)</f>
+        <v>28.763264471322806</v>
+      </c>
+      <c r="K4" s="16">
+        <f>AVERAGE(K3:K3)</f>
+        <v>32.277294431608539</v>
+      </c>
+      <c r="L4" s="16">
+        <f>AVERAGE(L3:L3)</f>
+        <v>31.231508122829648</v>
+      </c>
+      <c r="M4" s="16">
+        <f>AVERAGE(M3:M3)</f>
+        <v>27.608931015639975</v>
+      </c>
+      <c r="N4" s="16">
+        <f>AVERAGE(N3:N3)</f>
+        <v>26.199496757026917</v>
+      </c>
+      <c r="O4" s="16">
+        <f>AVERAGE(O3:O3)</f>
+        <v>7</v>
+      </c>
+      <c r="P4" s="16">
+        <f>AVERAGE(P3:P3)</f>
+        <v>14</v>
+      </c>
+      <c r="Q4" s="16">
+        <f>AVERAGE(Q3:Q3)</f>
+        <v>15</v>
+      </c>
+      <c r="R4" s="16">
+        <f>AVERAGE(R3:R3)</f>
+        <v>41</v>
+      </c>
+      <c r="S4" s="16">
+        <f>AVERAGE(S3:S3)</f>
+        <v>69</v>
+      </c>
+      <c r="T4" s="16">
+        <f>AVERAGE(T3:T3)</f>
+        <v>78</v>
+      </c>
+      <c r="U4" s="16">
+        <f>AVERAGE(U3:U3)</f>
+        <v>48</v>
+      </c>
+      <c r="V4" s="16">
+        <f>AVERAGE(V3:V3)</f>
+        <v>74</v>
+      </c>
+      <c r="W4" s="16">
+        <f>AVERAGE(W3:W3)</f>
+        <v>52</v>
+      </c>
+      <c r="X4" s="16">
+        <f>AVERAGE(X3:X3)</f>
+        <v>69</v>
+      </c>
+      <c r="Y4" s="16">
+        <f>AVERAGE(Y3:Y3)</f>
+        <v>69</v>
+      </c>
+      <c r="Z4" s="16">
+        <f>AVERAGE(Z3:Z3)</f>
+        <v>72</v>
+      </c>
+      <c r="AA4" s="16">
+        <f>AVERAGE(AA3:AA3)</f>
+        <v>109</v>
+      </c>
+      <c r="AB4" s="16">
+        <f>AVERAGE(AB3:AB3)</f>
+        <v>128</v>
+      </c>
+      <c r="AC4" s="16">
+        <f>AVERAGE(AC3:AC3)</f>
+        <v>129</v>
+      </c>
+      <c r="AD4" s="16">
+        <f>AVERAGE(AD3:AD3)</f>
+        <v>109</v>
+      </c>
+      <c r="AE4" s="16">
+        <f>AVERAGE(AE3:AE3)</f>
+        <v>104</v>
+      </c>
+      <c r="AF4" s="16">
+        <f>AVERAGE(AF3:AF3)</f>
+        <v>78</v>
+      </c>
+      <c r="AG4" s="16">
+        <f>AVERAGE(AG3:AG3)</f>
+        <v>2.8</v>
+      </c>
+      <c r="AH4" s="16">
+        <f>AVERAGE(AH3:AH3)</f>
+        <v>3.2</v>
+      </c>
+      <c r="AI4" s="16">
+        <f>AVERAGE(AI3:AI3)</f>
+        <v>3.3</v>
+      </c>
+      <c r="AJ4" s="16">
+        <f>AVERAGE(AJ3:AJ3)</f>
+        <v>5.2</v>
+      </c>
+      <c r="AK4" s="16">
+        <f>AVERAGE(AK3:AK3)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AL4" s="16">
+        <f>AVERAGE(AL3:AL3)</f>
+        <v>9.1</v>
+      </c>
+      <c r="AM4" s="16">
+        <f>AVERAGE(AM3:AM3)</f>
+        <v>6.3</v>
+      </c>
+      <c r="AN4" s="16">
+        <f>AVERAGE(AN3:AN3)</f>
+        <v>11.7</v>
+      </c>
+      <c r="AO4" s="16">
+        <f>AVERAGE(AO3:AO3)</f>
+        <v>5.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/raw data/GLY PD data 6.12.14_Analysis_Data.xlsx
+++ b/raw data/GLY PD data 6.12.14_Analysis_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="637" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="concentrations" sheetId="1" r:id="rId1"/>
@@ -18230,7 +18230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO20"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="AG2" sqref="AG2:AO20"/>
     </sheetView>
   </sheetViews>
@@ -21546,159 +21546,159 @@
         <v>117</v>
       </c>
       <c r="C7" s="16">
-        <f>AVERAGE(C2:C6)</f>
+        <f t="shared" ref="C7:AN7" si="0">AVERAGE(C2:C6)</f>
         <v>87.54</v>
       </c>
       <c r="D7" s="16">
-        <f>AVERAGE(D2:D6)</f>
+        <f t="shared" si="0"/>
         <v>162.16</v>
       </c>
       <c r="E7" s="16">
-        <f>AVERAGE(E2:E6)</f>
+        <f t="shared" si="0"/>
         <v>33.265728000000003</v>
       </c>
       <c r="F7" s="16">
-        <f>AVERAGE(F2:F6)</f>
+        <f t="shared" si="0"/>
         <v>29.52367008168256</v>
       </c>
       <c r="G7" s="16">
-        <f>AVERAGE(G2:G6)</f>
+        <f t="shared" si="0"/>
         <v>27.766244802208842</v>
       </c>
       <c r="H7" s="16">
-        <f>AVERAGE(H2:H6)</f>
+        <f t="shared" si="0"/>
         <v>29.213461635660632</v>
       </c>
       <c r="I7" s="16">
-        <f>AVERAGE(I2:I6)</f>
+        <f t="shared" si="0"/>
         <v>47.32874080359047</v>
       </c>
       <c r="J7" s="16">
-        <f>AVERAGE(J2:J6)</f>
+        <f t="shared" si="0"/>
         <v>64.716729811108024</v>
       </c>
       <c r="K7" s="16">
-        <f>AVERAGE(K2:K6)</f>
+        <f t="shared" si="0"/>
         <v>67.318333183700659</v>
       </c>
       <c r="L7" s="16">
-        <f>AVERAGE(L2:L6)</f>
+        <f t="shared" si="0"/>
         <v>62.797058060405149</v>
       </c>
       <c r="M7" s="16">
-        <f>AVERAGE(M2:M6)</f>
+        <f t="shared" si="0"/>
         <v>47.566336276831734</v>
       </c>
       <c r="N7" s="16">
-        <f>AVERAGE(N2:N6)</f>
+        <f t="shared" si="0"/>
         <v>35.545954139304634</v>
       </c>
       <c r="O7" s="16">
-        <f>AVERAGE(O2:O6)</f>
+        <f t="shared" si="0"/>
         <v>28.8</v>
       </c>
       <c r="P7" s="16">
-        <f>AVERAGE(P2:P6)</f>
+        <f t="shared" si="0"/>
         <v>26.8</v>
       </c>
       <c r="Q7" s="16">
-        <f>AVERAGE(Q2:Q6)</f>
+        <f t="shared" si="0"/>
         <v>23.8</v>
       </c>
       <c r="R7" s="16">
-        <f>AVERAGE(R2:R6)</f>
+        <f t="shared" si="0"/>
         <v>84.6</v>
       </c>
       <c r="S7" s="16">
-        <f>AVERAGE(S2:S6)</f>
+        <f t="shared" si="0"/>
         <v>116.25</v>
       </c>
       <c r="T7" s="16">
-        <f>AVERAGE(T2:T6)</f>
+        <f t="shared" si="0"/>
         <v>118</v>
       </c>
       <c r="U7" s="16">
-        <f>AVERAGE(U2:U6)</f>
+        <f t="shared" si="0"/>
         <v>118.2</v>
       </c>
       <c r="V7" s="16">
-        <f>AVERAGE(V2:V6)</f>
+        <f t="shared" si="0"/>
         <v>122.4</v>
       </c>
       <c r="W7" s="16">
-        <f>AVERAGE(W2:W6)</f>
+        <f t="shared" si="0"/>
         <v>85.6</v>
       </c>
       <c r="X7" s="16">
-        <f>AVERAGE(X2:X6)</f>
+        <f t="shared" si="0"/>
         <v>93.6</v>
       </c>
       <c r="Y7" s="16">
-        <f>AVERAGE(Y2:Y6)</f>
+        <f t="shared" si="0"/>
         <v>91.6</v>
       </c>
       <c r="Z7" s="16">
-        <f>AVERAGE(Z2:Z6)</f>
+        <f t="shared" si="0"/>
         <v>87.8</v>
       </c>
       <c r="AA7" s="16">
-        <f>AVERAGE(AA2:AA6)</f>
+        <f t="shared" si="0"/>
         <v>140.19999999999999</v>
       </c>
       <c r="AB7" s="16">
-        <f>AVERAGE(AB2:AB6)</f>
+        <f t="shared" si="0"/>
         <v>197.5</v>
       </c>
       <c r="AC7" s="16">
-        <f>AVERAGE(AC2:AC6)</f>
+        <f t="shared" si="0"/>
         <v>184.2</v>
       </c>
       <c r="AD7" s="16">
-        <f>AVERAGE(AD2:AD6)</f>
+        <f t="shared" si="0"/>
         <v>175</v>
       </c>
       <c r="AE7" s="16">
-        <f>AVERAGE(AE2:AE6)</f>
+        <f t="shared" si="0"/>
         <v>124.2</v>
       </c>
       <c r="AF7" s="16">
-        <f>AVERAGE(AF2:AF6)</f>
+        <f t="shared" si="0"/>
         <v>82.8</v>
       </c>
       <c r="AG7" s="16">
-        <f>AVERAGE(AG2:AG6)</f>
+        <f t="shared" si="0"/>
         <v>7.0640000000000001</v>
       </c>
       <c r="AH7" s="16">
-        <f>AVERAGE(AH2:AH6)</f>
+        <f t="shared" si="0"/>
         <v>6.4060000000000006</v>
       </c>
       <c r="AI7" s="16">
-        <f>AVERAGE(AI2:AI6)</f>
+        <f t="shared" si="0"/>
         <v>5.8620000000000001</v>
       </c>
       <c r="AJ7" s="16">
-        <f>AVERAGE(AJ2:AJ6)</f>
+        <f t="shared" si="0"/>
         <v>10.621999999999998</v>
       </c>
       <c r="AK7" s="16">
-        <f>AVERAGE(AK2:AK6)</f>
+        <f t="shared" si="0"/>
         <v>12.238</v>
       </c>
       <c r="AL7" s="16">
-        <f>AVERAGE(AL2:AL6)</f>
+        <f t="shared" si="0"/>
         <v>20.57</v>
       </c>
       <c r="AM7" s="16">
-        <f>AVERAGE(AM2:AM6)</f>
+        <f t="shared" si="0"/>
         <v>22.140000000000004</v>
       </c>
       <c r="AN7" s="16">
-        <f>AVERAGE(AN2:AN6)</f>
+        <f t="shared" si="0"/>
         <v>21.139999999999997</v>
       </c>
       <c r="AO7" s="16">
-        <f t="shared" ref="AO7" si="0">AVERAGE(AO2:AO6)</f>
+        <f t="shared" ref="AO7" si="1">AVERAGE(AO2:AO6)</f>
         <v>14.790000000000001</v>
       </c>
     </row>
@@ -22514,8 +22514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2:AO4"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AM7" sqref="AM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22900,160 +22900,160 @@
         <v>117</v>
       </c>
       <c r="C4" s="16">
-        <f>AVERAGE(C3:C3)</f>
-        <v>163.69999999999999</v>
+        <f>AVERAGE(C2:C3)</f>
+        <v>142.85999999999999</v>
       </c>
       <c r="D4" s="16">
-        <f>AVERAGE(D3:D3)</f>
-        <v>178.9</v>
+        <f>AVERAGE(D2:D3)</f>
+        <v>179.45</v>
       </c>
       <c r="E4" s="16">
-        <f>AVERAGE(E3:E3)</f>
-        <v>51.147930000000002</v>
+        <f t="shared" ref="E4:AO4" si="0">AVERAGE(E2:E3)</f>
+        <v>44.404210000000006</v>
       </c>
       <c r="F4" s="16">
-        <f>AVERAGE(F3:F3)</f>
-        <v>5.8297755450221906</v>
+        <f t="shared" si="0"/>
+        <v>23.424099033788352</v>
       </c>
       <c r="G4" s="16">
-        <f>AVERAGE(G3:G3)</f>
-        <v>14.487239409096599</v>
+        <f t="shared" si="0"/>
+        <v>29.182890068963651</v>
       </c>
       <c r="H4" s="16">
-        <f>AVERAGE(H3:H3)</f>
-        <v>12.131981018378093</v>
+        <f t="shared" si="0"/>
+        <v>26.030099254152429</v>
       </c>
       <c r="I4" s="16">
-        <f>AVERAGE(I3:I3)</f>
-        <v>19.720045758983595</v>
+        <f t="shared" si="0"/>
+        <v>36.143612750205918</v>
       </c>
       <c r="J4" s="16">
-        <f>AVERAGE(J3:J3)</f>
-        <v>28.763264471322806</v>
+        <f t="shared" si="0"/>
+        <v>45.691281057904519</v>
       </c>
       <c r="K4" s="16">
-        <f>AVERAGE(K3:K3)</f>
-        <v>32.277294431608539</v>
+        <f t="shared" si="0"/>
+        <v>51.834831292077858</v>
       </c>
       <c r="L4" s="16">
-        <f>AVERAGE(L3:L3)</f>
-        <v>31.231508122829648</v>
+        <f t="shared" si="0"/>
+        <v>54.73619144444838</v>
       </c>
       <c r="M4" s="16">
-        <f>AVERAGE(M3:M3)</f>
-        <v>27.608931015639975</v>
+        <f t="shared" si="0"/>
+        <v>40.920712577906372</v>
       </c>
       <c r="N4" s="16">
-        <f>AVERAGE(N3:N3)</f>
-        <v>26.199496757026917</v>
+        <f t="shared" si="0"/>
+        <v>35.268488688019588</v>
       </c>
       <c r="O4" s="16">
-        <f>AVERAGE(O3:O3)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>21.5</v>
       </c>
       <c r="P4" s="16">
-        <f>AVERAGE(P3:P3)</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="Q4" s="16">
-        <f>AVERAGE(Q3:Q3)</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>28.5</v>
       </c>
       <c r="R4" s="16">
-        <f>AVERAGE(R3:R3)</f>
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+      <c r="S4" s="16">
+        <f t="shared" si="0"/>
+        <v>73.5</v>
+      </c>
+      <c r="T4" s="16">
+        <f t="shared" si="0"/>
+        <v>48.5</v>
+      </c>
+      <c r="U4" s="16">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="V4" s="16">
+        <f t="shared" si="0"/>
+        <v>106.5</v>
+      </c>
+      <c r="W4" s="16">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="S4" s="16">
-        <f>AVERAGE(S3:S3)</f>
-        <v>69</v>
-      </c>
-      <c r="T4" s="16">
-        <f>AVERAGE(T3:T3)</f>
-        <v>78</v>
-      </c>
-      <c r="U4" s="16">
-        <f>AVERAGE(U3:U3)</f>
-        <v>48</v>
-      </c>
-      <c r="V4" s="16">
-        <f>AVERAGE(V3:V3)</f>
-        <v>74</v>
-      </c>
-      <c r="W4" s="16">
-        <f>AVERAGE(W3:W3)</f>
-        <v>52</v>
-      </c>
       <c r="X4" s="16">
-        <f>AVERAGE(X3:X3)</f>
-        <v>69</v>
+        <f t="shared" si="0"/>
+        <v>66.5</v>
       </c>
       <c r="Y4" s="16">
-        <f>AVERAGE(Y3:Y3)</f>
-        <v>69</v>
+        <f t="shared" si="0"/>
+        <v>67.5</v>
       </c>
       <c r="Z4" s="16">
-        <f>AVERAGE(Z3:Z3)</f>
-        <v>72</v>
+        <f t="shared" si="0"/>
+        <v>66</v>
       </c>
       <c r="AA4" s="16">
-        <f>AVERAGE(AA3:AA3)</f>
-        <v>109</v>
+        <f t="shared" si="0"/>
+        <v>98.5</v>
       </c>
       <c r="AB4" s="16">
-        <f>AVERAGE(AB3:AB3)</f>
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="AC4" s="16">
+        <f t="shared" si="0"/>
+        <v>140.5</v>
+      </c>
+      <c r="AD4" s="16">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="AE4" s="16">
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="AC4" s="16">
-        <f>AVERAGE(AC3:AC3)</f>
-        <v>129</v>
-      </c>
-      <c r="AD4" s="16">
-        <f>AVERAGE(AD3:AD3)</f>
-        <v>109</v>
-      </c>
-      <c r="AE4" s="16">
-        <f>AVERAGE(AE3:AE3)</f>
-        <v>104</v>
-      </c>
       <c r="AF4" s="16">
-        <f>AVERAGE(AF3:AF3)</f>
-        <v>78</v>
+        <f t="shared" si="0"/>
+        <v>88</v>
       </c>
       <c r="AG4" s="16">
-        <f>AVERAGE(AG3:AG3)</f>
-        <v>2.8</v>
+        <f t="shared" si="0"/>
+        <v>5.85</v>
       </c>
       <c r="AH4" s="16">
-        <f>AVERAGE(AH3:AH3)</f>
-        <v>3.2</v>
+        <f t="shared" si="0"/>
+        <v>5.9</v>
       </c>
       <c r="AI4" s="16">
-        <f>AVERAGE(AI3:AI3)</f>
-        <v>3.3</v>
+        <f t="shared" si="0"/>
+        <v>4.6500000000000004</v>
       </c>
       <c r="AJ4" s="16">
-        <f>AVERAGE(AJ3:AJ3)</f>
-        <v>5.2</v>
+        <f t="shared" si="0"/>
+        <v>7.25</v>
       </c>
       <c r="AK4" s="16">
-        <f>AVERAGE(AK3:AK3)</f>
-        <v>4.4000000000000004</v>
+        <f t="shared" si="0"/>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AL4" s="16">
-        <f>AVERAGE(AL3:AL3)</f>
-        <v>9.1</v>
+        <f t="shared" si="0"/>
+        <v>8.4</v>
       </c>
       <c r="AM4" s="16">
-        <f>AVERAGE(AM3:AM3)</f>
-        <v>6.3</v>
+        <f t="shared" si="0"/>
+        <v>10.9</v>
       </c>
       <c r="AN4" s="16">
-        <f>AVERAGE(AN3:AN3)</f>
-        <v>11.7</v>
+        <f t="shared" si="0"/>
+        <v>13.55</v>
       </c>
       <c r="AO4" s="16">
-        <f>AVERAGE(AO3:AO3)</f>
-        <v>5.9</v>
+        <f t="shared" si="0"/>
+        <v>9.6999999999999993</v>
       </c>
     </row>
   </sheetData>
